--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.214</v>
+        <v>-0.213</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.991</v>
+        <v>30.989</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.09781350667753</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.09782053829126</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.09782241791562</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.09751171906537</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.09751515737926</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.09751957116285</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.09786622391869</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.09786958628021</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.09787398215188</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.09656887073206</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.09657436937012</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.09657848146927</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.09648003928033</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.09649154230205</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.09649720770841</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.09649653795799</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.09651203959131</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.09651674529641</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.09610480550038</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.09611406613266</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.09611957743558</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.09659931178451</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.09660663761313</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.09632304019328</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.09408514070577</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.09410202840746</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.09410228654563</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.09391029862861</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.09394093708874</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.09394711225994</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.09603424378232</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.09604218885973</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.09618348575657</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.09584698793343</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.09578637073424</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.09578521412885</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.09640090461969</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.09634094770114</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.09624406899545</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.09394833549017</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.09399363385878</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.09399798292245</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.09375927444706</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.09383457749503</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.09380028696856</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.09782013262969</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.09722248492458</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.09722716959562</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.09686288312365</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.09685984296819</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.09686239194393</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.0972820613636</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.09729231302701</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.0972957027981</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.09575870664376</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.09572431979008</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.09572646877103</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.09561814519641</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.09563333332787</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.09563638614437</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.09565325113451</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.09606764253784</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.09606861929512</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.09571407339437</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.09569794269543</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.09569255049111</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.09625857586437</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.09621391795745</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.09621189827161</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.09359367044658</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.09375904289691</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.0937668320827</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.09356893556338</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.09362364838816</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.09363704490955</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.09552912645765</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.09536422304716</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.09538102473792</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.09509921122543</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.09503027532218</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.09504468680203</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.09575233394622</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.09556856852447</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.09558700774385</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.09316475235235</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.09347209422849</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.09348089394936</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.09326055763609</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.09332210980572</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.09333547221056</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.09748908333687</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.09785034375206</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.09799898621921</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.09790423278116</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.09784806331818</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.09782418750198</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.09811108565295</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.09804676504163</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.0976800384827</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.09625338817192</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.09628773884279</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.09629392126264</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.09613563144321</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.0961865310267</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.09613074511845</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.09614889287243</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.09618950163897</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.09641957584232</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.09628070102114</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.09617874606905</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.0961405582225</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.09663247746556</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.09651953660347</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.09620074757626</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.09428486550237</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.0943167384725</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.09432908102632</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.09412721204306</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.09419725218558</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.09422249212139</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.09584818745667</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.09592305171391</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.09592588888599</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.09562121165364</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.09567476109951</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.09567811959938</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.09608114306528</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.09613735082668</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.09614303600302</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.09433969612659</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.09439282069389</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.09441181540027</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.09417135048515</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.09427264796814</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.09430290437315</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.09780658213794</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.09781777840269</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.09781922110911</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.09752618608065</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.09753262911505</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.09753629797605</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.0978764232334</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.09788276248513</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.09788642490876</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.09658785447094</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.09659751408284</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.09660106580258</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.0964898199517</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.0965086065894</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.09651369549671</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.09647343261767</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.09648705001065</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.09648875520688</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.09609315459251</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.09609701139252</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.09610233216872</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.09659936841643</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.09660512820881</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.09383896520729</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.09386105772146</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.09386138388938</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.09364553124254</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.09369002030513</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.09369259387601</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.09592400088089</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.09593243369179</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.09593005892242</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.09571250578098</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.0956487566025</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.09564546759988</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.09628097598402</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.09621784875322</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.09621495599817</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.09374621609797</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.09379929916793</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.09380269183415</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.09352278099006</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.09362200662071</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.09362772296371</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.0982467786881</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.09826143375293</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.09803414970736</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.09778955866107</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.09778407827638</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.09778864367267</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.09809360377198</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.09808545709518</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.09810041591495</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.09693722103193</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.09694877957592</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.096944685679</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.09685891441519</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.0968670085882</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.09686692128859</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.0966174334726</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.09660367068282</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.09686230795081</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.09655026782473</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.09654170764675</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.09654051481028</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.09698659487429</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.09698269143225</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.09521867702508</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.09526426728775</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.09491830091871</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.09479232676437</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.09483086595592</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.09483843079276</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.09637220983573</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.09631569066001</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.09631038539849</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.09595341192109</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.09594421659033</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.09595317515107</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.09651103991268</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.09648316888113</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.09648965075437</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.0943761049743</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.0944403308435</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.09445623040419</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.09435496502807</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.09439672687495</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.09440572201072</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.0954067314274</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.09537122473927</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.09536174456523</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.09563349457342</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.0961033034051</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.09607580149187</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.09657793556678</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.09643029310207</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.09640607114856</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.09466773679397</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.09337733563078</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.0933886483239</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.09311550153716</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.09320001217523</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.09321553672125</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.09358126660637</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.09327179291412</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.09327399864987</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.09252283323046</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.09326200535249</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.09321826017264</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.09406891524765</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.09381690968305</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.09377657639539</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.09086818108695</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.08976515381494</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.08992006006803</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.08964562722524</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.08972243687867</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.08974401105436</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.09302725200864</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.09251202544054</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.09238101904803</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.09236796551193</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.09330564367065</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.09328250028789</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.09325581454158</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.08979511810766</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.08968583374022</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.08974165139251</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.08918113871811</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.08987289268275</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.08990846842569</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.09554619544688</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.09546987167446</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.09545645719731</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.09508791385561</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.09413038720179</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.0941375156526</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.09489031738831</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.09487766355862</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.09487983960204</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.09211211641285</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.0921731515245</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.09218269475637</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.09192981140098</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.09190451169552</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.09192042156004</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.09182273468636</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.09176111394486</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.09175597352302</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.09107175530493</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.09157430468963</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.09159230983347</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.09264298581703</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.09259389183451</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.09260238423041</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.08869578779314</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.08867863243789</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.0887140494787</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.08682134635781</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.08693727822227</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.08694721374253</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.09177561606882</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.09174484146827</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.09173903072358</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.09054327267152</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.09063171789082</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.09063427392606</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.09245454972039</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.09226622216795</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.09224761887792</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.08805933835648</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.08809982427583</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.08809720212516</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.08721383988232</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.08750823423497</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.08754204652621</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.09784807850912</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.0978510738604</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.09784773098943</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.09745772276246</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.09749820952476</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.09694418659006</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.09736123667467</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.09734665400778</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.0973448915928</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.09585223442541</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.09586468919128</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.0958711216222</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.09572697972399</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.0957599304461</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.09574690732015</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.09557630872344</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.09555752856327</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.09553487087382</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.09509984718114</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.09507286230455</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.09561107574658</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.09618002326665</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.09615606543146</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.09614084175444</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.09410745246605</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.09415966597622</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.09410428738781</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.09382985816079</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.09320113704974</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.09325839805678</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.09527393920515</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.09518730884784</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.09515330786824</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.0949553973166</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.09484582468944</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.09473971798349</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.09545515096547</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.09541080528991</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.09542068536893</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.09282049095076</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.09289164834225</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.09283099825137</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.09249375944824</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.09264808649239</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.09278096392658</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.09633839874049</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.0963072985797</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.09628787586272</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.09602584925161</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.09598382860212</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.0965409080722</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.09733603798857</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.09725628815136</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.09723520660369</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.09577025538012</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.09580235716601</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.09580633032936</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.09442126251738</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.09450990969884</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.0945255950474</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.09482840823587</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.09483411994837</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.09482286449371</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.09389424012409</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.09400924162667</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.09401611608077</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.09532711394944</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.09518417539046</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.09514946686968</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.09269490293397</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.09274207965828</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.09274951938499</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.09146112062621</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.09180786451278</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.09183024979968</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.09455349823412</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.09432536243838</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.09427344881078</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.09409229752508</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.0939756335023</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.09396565023602</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.0947122296119</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.09469208130421</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.09466942889383</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.0919122164623</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.09181934743059</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.09186919882873</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.09139836837108</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.09199790947684</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.09203148259605</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.09680224940913</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.09674487537391</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.09673493274839</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.09646744403011</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.09577456463227</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.09577984578019</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.09633336130779</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.09632480533848</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.09632660290472</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.09428318753899</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.09432648559938</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.09433331842805</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.09414440365338</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.0941349092126</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.09414624296583</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.09407299142273</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.09402677914506</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.09402241293753</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.09351980393094</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.09389622582673</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.09390750444731</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.09467649822616</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.09464123458843</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.09464662160613</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.09178780468158</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.09177800561068</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.09180313196327</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.09042292844389</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.09050915849886</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.09051704416849</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.09402097937189</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.09399832124896</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.09399360590541</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.0931197049396</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.09318558022579</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.09318745447544</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.09452004704642</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.09438217348468</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.09436711644459</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.09129578162336</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.09132537529014</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.09132327278227</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.09069575262677</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.09091232477419</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.09093778751827</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.09767820265532</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.09768604615822</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.09768068975436</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.0972268906216</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.09728362951343</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.09645191427125</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.09693382334031</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.09691485935064</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.0969140868223</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.09521606045153</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.09523185946981</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.09525611482934</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.09508947734837</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.09513122744118</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.09509263546249</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.09514652798378</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.09512199002209</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.09509232333711</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.09463030293438</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.09459561130278</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.09519248893959</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.09581591236229</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.09578703073358</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.09576247780561</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.09358263563631</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.09365495081027</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.09359465227791</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.09327049233305</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.09281232376964</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.09292176378129</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.09503831508938</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.09493967693934</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.09489218471618</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.09480119095093</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.09467117818433</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.09455363443844</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.09526539098999</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.09521767165577</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.09522999648377</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.09260741431275</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.09269835571085</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.09258985795449</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.09222208843029</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.09240929096948</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.09262680970824</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.09749149302987</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.09746852067709</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.0974544464277</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.09727135589845</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.09724101640143</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.09758094903833</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.09814272152028</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.09808705696843</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.09807309174772</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.09699101858243</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.09701323781688</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.09701562493692</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.09609887182284</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.09615948422129</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.09616996246775</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.09633284633553</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.0963341767624</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.09632616767755</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.09567145187032</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.09574979803888</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.09575349335186</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.09668402302581</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.09658426427812</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.09656088207502</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.09474841474871</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.09478160149818</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.09478579493371</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.09394691823927</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.09418305351028</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.09420228179167</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.09614860706634</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.0959939275386</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.09595896718149</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.09581777874651</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.09573139919411</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.09572616405667</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.09626985639826</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.09625625024883</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.09624158813089</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.09422866434822</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.09416556517671</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.09420075987288</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.09387062446998</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.09427790412596</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.09430345664651</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.09723415569353</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.09718611089732</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.09717795212685</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.09694038623476</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.09638081585019</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.09638553443126</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.09686746864103</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.09685977199238</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.09686137786679</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.09508040489633</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.09511698063172</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.09512333252033</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.09495490836143</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.09495633831907</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.09496639367091</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.09489649619293</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.09485384240963</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.09484956435027</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.09441335698446</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.09478034376271</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.094788399499</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.09545437722687</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.09542119852278</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.09542487051899</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.09296569432691</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.09295846705382</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.0929804420816</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.09165547685641</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.09173387256498</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.09174090379359</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.09484137822356</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.0948190380103</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.09481464456621</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.09404823913861</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.09410536973703</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.09410680958366</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.09527647863008</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.09515339173638</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.09513952191313</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.09246260052606</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.0924886341542</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.09248653891315</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.09194220897195</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.0921369829081</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.09216005212767</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.09781612672309</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.0978242224205</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.09781912795985</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.09740993974962</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.09745455410436</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.09679729035489</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.09724027098623</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.09722630341273</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.09722623299734</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.0956584878667</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.09566843399082</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.09568996720464</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.09554712912403</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.09557500443084</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.09554135224062</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.09555634138317</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.09553814369054</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.09551506232453</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.0950758553109</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.0950501310785</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.09552506684325</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.09611186969125</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.09609076204175</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.09607084224971</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.09400680039346</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.09406113789091</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.0940172535736</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.09374279614453</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.09317762672673</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.0932414384201</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.09526574411366</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.09519721825011</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.09516572232154</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.09496611036313</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.09487522562886</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.09475274890682</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.09545235328837</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.09542172025744</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.09543024268664</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.09285245761902</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.09291930463049</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.09285395511405</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.0925400028069</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.09267437066194</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.0928176947741</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.09763262744796</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.09761066914636</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.09759726269698</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.09742425494479</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.09739545644556</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.09769970051819</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.09823414994747</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.09818171340796</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.09816866033839</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.09712690278588</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.09714776886311</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.09648556298052</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.09633583223596</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.09638346419735</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.09639154414644</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.09654576493398</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.0965334310986</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.09637894596633</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.09595111676154</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.09600930869665</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.09633703118721</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.09682889678323</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.09673114390381</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.09667026238914</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.09499818643799</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.09501650271139</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.09450479507462</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.09441961853893</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.09447833689044</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.09450058426387</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.09632899937326</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.09623607258365</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.09620422714555</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.09589428230176</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.0959221401476</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.09592093631935</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.09644533905533</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.09644034739706</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.09642989126059</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.09425655460369</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.09439585832681</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.09442969217298</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.09445919248806</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.09454421788667</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.09457134740812</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.0982766992526</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.09826490778081</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.09826160886663</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.09785905348576</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.09785912588454</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.09786012087991</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.09816744679005</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.09816484507584</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.09816485034479</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.09701618172543</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.09702577889671</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.09702793735213</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.09693563944307</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.09694429192768</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.09694666368362</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.09671842392635</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.09670296102155</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.09670283079289</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.09657924104476</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.09656947505047</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.09657345941822</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.09704779404231</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.0970292437675</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.0970323855782</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.09524865196161</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.09528142220436</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.09468565569457</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.09451496999741</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.09453299380537</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.09453332086204</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.09647017995171</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.09645464156863</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.09641068297329</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.09599207386635</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.09599533052826</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.09608332073404</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.09662582234292</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.09658982830589</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.09658286461563</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.09460363956005</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.09460473787509</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.09453795712666</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.09433360253383</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.09437762728183</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.09437977264103</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.09913088093585</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.09912828809229</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.09912021762732</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.09899663022586</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.09888306486829</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.09888200580725</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.09906571167358</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.09906393728121</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.09906286228389</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.09839713591038</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.09839966410376</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.09839897464112</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.09834769487107</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.09834690694875</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.09834599216242</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.09815522353647</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.0981491938496</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.09814747205925</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.0979307402996</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.09806519883832</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.09806568603134</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.09834778709113</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.09834019605018</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.09833923303811</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.09730138180447</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.09730068240198</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.09730467392745</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.0972548821649</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.0972862578068</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.09728975258716</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.09809882044888</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.09808083545064</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.09808159347881</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.09790078266364</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.09786467118074</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.09786703008667</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.09817624714609</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.0981681493562</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.0981704266915</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.0970284590646</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.09701770056862</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.0970205041611</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.09692059981841</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.0969593916648</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.0969636899564</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.09801099276487</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.0979973163935</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.09799665846288</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.09779183997787</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.09797095742363</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.09801833512266</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.09829390919183</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.0982716490698</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.09825340012504</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.09725710657084</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.09726016291979</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.09699757468259</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.09689038123702</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.09690736282075</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.0969088192983</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.09680128359373</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.0967893349772</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.09673007317163</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.0963543697214</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.09636822821984</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.09646423912348</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.09694067162056</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.09689931478474</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.09687286350357</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.09516323412551</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.09516552183224</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.09496265899749</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.09485275956007</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.09487443988402</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.09488136633875</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.09638453902728</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.09635264042763</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.09634269626398</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.09597855851735</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.09598711417968</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.09598917212666</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.09651058853987</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.09650834887996</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.09650651240818</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.09442781191105</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.09447934897725</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.0944941217641</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.09439029333208</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.09442450064776</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.0944349583604</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.09800212915708</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.09799188624747</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.09798971654313</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.09754602864488</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.0975474866632</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.09754971076347</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.09789782819539</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.09789415843987</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.09789496082995</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.09660454793395</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.09662055220018</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.09662387256384</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.09650785360198</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.09652225945012</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.09652625895719</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.09628655805436</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.09626460028673</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.09626275758497</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.09613669620423</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.09612695684183</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.09613101904326</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.09666756770902</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.09664387062578</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.09664642093618</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.09466428675931</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.0947106566203</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.09386871382233</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.09366703798666</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.09369482195492</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.09369548126329</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.09600630666031</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.09598353621653</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.09592076007301</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.09544277926328</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.09544918881762</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.0955839722191</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.09621270448418</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.09616080973349</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.09615514812224</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.0938913874747</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.09389295634124</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.09376309254448</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.09351823869783</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.09358291228723</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.09358613554414</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.09914151477792</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.09913895725849</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.09913044973488</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.09900832840403</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.09888990494549</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.09888885304743</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.09907166015591</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.09906990162196</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.09906883452661</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.09840627855748</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.09840880647596</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.09840812360823</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.09835705979573</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.09835632039433</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.09835541191653</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.0981679059708</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.09816183559161</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.09816009295432</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.09794471437892</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.09808325240245</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.09808364954383</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.09836325838486</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.09835567942957</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.09835464736565</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.09732561759538</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.09732453887001</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.09732852244266</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.09727365964424</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.09730620657374</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.09730985044297</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.0981140732012</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.09809566847641</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.09809642487349</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.09791882913282</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.09788212065602</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.09788455329629</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.09819150720288</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.09818317606531</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.09818549662553</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.09705143142622</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.0970401325776</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.09704306826274</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.09694311933846</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.09698356818503</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.09698796703837</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.0976850882106</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.09766006163082</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.09765858280219</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.09745267913809</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.09769193632598</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.09778616336182</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>28.09808858519713</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.0980493274744</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.09802264739158</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>28.09695436962125</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>28.09696085412269</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.09653992795906</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.09640771237754</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>28.09643819659319</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>28.09644024535405</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>28.09640065474427</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.0963806320254</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>28.09628524207681</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.0958567986639</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.09588411157944</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>28.09606077834424</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>28.09659009210344</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>28.09651770865849</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.09647788857181</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.09462921356161</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.09463642170635</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>28.09438142123228</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.09428328105796</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>28.09431882911558</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>28.09433212909625</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.09605427832468</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.09599604948154</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>28.0959807016925</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.09559841349359</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.09561377889796</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>28.0956163710847</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.09617700150229</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>28.09617361958863</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>28.09617039544184</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.09388186884321</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.09397266074319</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>28.09399416474843</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>28.09394156183926</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>28.09399747682458</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>28.09401394092228</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>28.09794940149212</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>28.09793995539395</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>28.09793792439194</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>28.09739832810689</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.09740169248576</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.09740582124762</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.09777298209431</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.09776883502363</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.09777116295695</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.09643588672272</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.09645718538652</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>28.09646175847681</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.09631368524408</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.09633232479379</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>28.09633824722535</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>28.09619642920714</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>28.09617120424939</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>28.09616593652927</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.09598793594667</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.09598576723061</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.09598801330912</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.09654649799822</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.0965249597883</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.09652430772756</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.0945077008661</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>28.09456588361063</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>28.09354290587275</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.09332732596232</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>28.09336450989955</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>28.09336628847633</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.09587117371036</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>28.09584395584159</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.09575982629832</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>28.09525909757575</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.09527385498171</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.0954703738281</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>28.09614738282881</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.09608138047572</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>28.09607701912403</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.09367998003241</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.09368343258335</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.09348442911428</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.09321685507417</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>28.09330349404232</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.09331062086239</v>
+        <v>28.10032805747433</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.089</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.367</v>
+        <v>21.954</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.213</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.989</v>
+        <v>25.039</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.271</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.605</v>
+        <v>20.501</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.10032805747433</v>
+        <v>-0.2018413555683374</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.10032805747433</v>
+        <v>26.06327494518295</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.10032805747433</v>
+        <v>32.50147154799576</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.10032805747433</v>
+        <v>8.556050550026992</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.10032805747433</v>
+        <v>19.09584476027684</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.10032805747433</v>
+        <v>24.57990430254976</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.10032805747433</v>
+        <v>16.0820930704554</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.10032805747433</v>
+        <v>23.60797163312888</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.10032805747433</v>
+        <v>27.40025655763933</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.10032805747433</v>
+        <v>26.80325442900054</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.10032805747433</v>
+        <v>32.88144115577181</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.10032805747433</v>
+        <v>35.45789408143848</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.10032805747433</v>
+        <v>16.2096641822465</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.10032805747433</v>
+        <v>31.09144984365109</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.10032805747433</v>
+        <v>36.5541837815769</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.10032805747433</v>
+        <v>4.091630440641705</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.10032805747433</v>
+        <v>30.35928711736612</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.10032805747433</v>
+        <v>36.79837504581887</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.10032805747433</v>
+        <v>12.84905679279124</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.10032805747433</v>
+        <v>23.39088706014199</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.10032805747433</v>
+        <v>28.87538326389248</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.10032805747433</v>
+        <v>20.37656521467811</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.10032805747433</v>
+        <v>27.90385996261754</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.10032805747433</v>
+        <v>31.69651904936408</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.10032805747433</v>
+        <v>31.09976916049201</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.10032805747433</v>
+        <v>37.1788564667343</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.10032805747433</v>
+        <v>39.75564357275157</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.10032805747433</v>
+        <v>20.50533221598111</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.10032805747433</v>
+        <v>35.38905794889381</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.10032805747433</v>
+        <v>40.85258577936297</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.10032805747433</v>
+        <v>11.0460489090705</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.10032805747433</v>
+        <v>37.31363653825933</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.10032805747433</v>
+        <v>43.75278923852765</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.10032805747433</v>
+        <v>19.80356171968542</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.10032805747433</v>
+        <v>30.34570665110236</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.10032805747433</v>
+        <v>35.83024398636091</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.10032805747433</v>
+        <v>27.33135784224161</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.10032805747433</v>
+        <v>34.85895400554755</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.10032805747433</v>
+        <v>38.6516369073136</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.10032805747433</v>
+        <v>38.05508480661688</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.10032805747433</v>
+        <v>44.13428482894828</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.10032805747433</v>
+        <v>46.71108487451686</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.10032805747433</v>
+        <v>27.46049235335094</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.10032805747433</v>
+        <v>42.34447946788627</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.10032805747433</v>
+        <v>47.80811018986803</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.10032805747433</v>
+        <v>-1.106066776179166</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.10032805747433</v>
+        <v>25.15938998180995</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.10032805747433</v>
+        <v>31.59743878604347</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.10032805747433</v>
+        <v>7.651952131944238</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.10032805747433</v>
+        <v>18.1920042450245</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.10032805747433</v>
+        <v>23.675891314579</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.10032805747433</v>
+        <v>15.17801520346363</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.10032805747433</v>
+        <v>22.70409079386063</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.10032805747433</v>
+        <v>26.49626804564222</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.10032805747433</v>
+        <v>25.89922480693785</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.10032805747433</v>
+        <v>31.97751939760591</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.10032805747433</v>
+        <v>34.55389433427028</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.10032805747433</v>
+        <v>15.3054568404048</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.10032805747433</v>
+        <v>30.18751345783884</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.10032805747433</v>
+        <v>35.65008503627148</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.10032805747433</v>
+        <v>3.187596072597596</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.10032805747433</v>
+        <v>29.455593252284</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.10032805747433</v>
+        <v>35.89453336059528</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.10032805747433</v>
+        <v>11.94514941765332</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.10032805747433</v>
+        <v>22.48723761579383</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.10032805747433</v>
+        <v>27.97156132269474</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.10032805747433</v>
+        <v>19.47267841833256</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.10032805747433</v>
+        <v>27.00017021445528</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.10032805747433</v>
+        <v>30.79272161128919</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.10032805747433</v>
+        <v>30.19593060363108</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.10032805747433</v>
+        <v>36.27512578648343</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.10032805747433</v>
+        <v>38.85183488830778</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.10032805747433</v>
+        <v>19.6013159246534</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.10032805747433</v>
+        <v>34.48531264960529</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.10032805747433</v>
+        <v>39.94867809224131</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.10032805747433</v>
+        <v>10.14254148368438</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.10032805747433</v>
+        <v>36.4104696333424</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.10032805747433</v>
+        <v>42.84947450824158</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.10032805747433</v>
+        <v>18.90018128698823</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.10032805747433</v>
+        <v>29.4425841538255</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.10032805747433</v>
+        <v>34.92694899233429</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.10032805747433</v>
+        <v>26.42799800818879</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.10032805747433</v>
+        <v>33.95579122660392</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.10032805747433</v>
+        <v>37.74836643506698</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.10032805747433</v>
+        <v>37.15177320401487</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.10032805747433</v>
+        <v>43.23108110528601</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.10032805747433</v>
+        <v>45.80780314614258</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.10032805747433</v>
+        <v>26.55700301251049</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.10032805747433</v>
+        <v>41.44126112432711</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.10032805747433</v>
+        <v>46.90472945646415</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.10032805747433</v>
+        <v>-1.024564438275963</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.10032805747433</v>
+        <v>25.24089957600999</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.10032805747433</v>
+        <v>31.67893963521935</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.10032805747433</v>
+        <v>7.733440359995637</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.10032805747433</v>
+        <v>18.27349717112979</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.10032805747433</v>
+        <v>23.75737878635759</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.10032805747433</v>
+        <v>15.25951630004139</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.10032805747433</v>
+        <v>22.78559347395848</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.10032805747433</v>
+        <v>26.57776592279906</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.10032805747433</v>
+        <v>25.98074290660672</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.10032805747433</v>
+        <v>32.05903767802367</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.10032805747433</v>
+        <v>34.63540956395961</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.10032805747433</v>
+        <v>15.38697650901342</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.10032805747433</v>
+        <v>30.26903226995061</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.10032805747433</v>
+        <v>35.73159582529904</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.10032805747433</v>
+        <v>3.269216732405237</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.10032805747433</v>
+        <v>29.53722117053136</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.10032805747433</v>
+        <v>35.9761525326807</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.10032805747433</v>
+        <v>12.02675597401257</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.10032805747433</v>
+        <v>22.56884886966024</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.10032805747433</v>
+        <v>28.05316712240601</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.10032805747433</v>
+        <v>19.55429784421828</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.10032805747433</v>
+        <v>27.08179122476399</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.10032805747433</v>
+        <v>30.87433781835288</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.10032805747433</v>
+        <v>30.27756703147353</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.10032805747433</v>
+        <v>36.35676239509603</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.10032805747433</v>
+        <v>38.9334684462513</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.10032805747433</v>
+        <v>19.68295391798635</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.10032805747433</v>
+        <v>34.56694978836701</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.10032805747433</v>
+        <v>40.03030720811323</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.10032805747433</v>
+        <v>10.2241827414703</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.10032805747433</v>
+        <v>36.49211815100141</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.10032805747433</v>
+        <v>42.93111427950093</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.10032805747433</v>
+        <v>18.98180844144626</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.10032805747433</v>
+        <v>29.52421600632639</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.10032805747433</v>
+        <v>35.0085753905892</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.10032805747433</v>
+        <v>26.50963803320341</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.10032805747433</v>
+        <v>34.03743283650208</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.10032805747433</v>
+        <v>37.83000324169329</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.10032805747433</v>
+        <v>37.23343022848557</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.10032805747433</v>
+        <v>43.31273831110927</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.10032805747433</v>
+        <v>45.88945730111782</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.10032805747433</v>
+        <v>26.63866160061165</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.10032805747433</v>
+        <v>41.52291885940581</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.10032805747433</v>
+        <v>46.98637916863179</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.10032805747433</v>
+        <v>-5.249649793500641</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.10032805747433</v>
+        <v>21.01540492408234</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.10032805747433</v>
+        <v>27.45355307977165</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.10032805747433</v>
+        <v>3.508015261031385</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.10032805747433</v>
+        <v>14.04774023042937</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.10032805747433</v>
+        <v>19.53174400798575</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.10032805747433</v>
+        <v>11.03394800126447</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.10032805747433</v>
+        <v>18.559772436376</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.10032805747433</v>
+        <v>22.35201693221374</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.10032805747433</v>
+        <v>21.75508111745811</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.10032805747433</v>
+        <v>27.8332410067242</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.10032805747433</v>
+        <v>30.40967024726221</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.10032805747433</v>
+        <v>11.16159907167643</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.10032805747433</v>
+        <v>26.04330599357335</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.10032805747433</v>
+        <v>31.50597450023535</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.10032805747433</v>
+        <v>-0.9560226589768099</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.10032805747433</v>
+        <v>25.31157243782415</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.10032805747433</v>
+        <v>31.75061191386093</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.10032805747433</v>
+        <v>7.801176839954376</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.10032805747433</v>
+        <v>18.34293786642278</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.10032805747433</v>
+        <v>23.82737829932152</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.10032805747433</v>
+        <v>22.85581610685589</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.10032805747433</v>
+        <v>26.64843476066021</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.10032805747433</v>
+        <v>26.05175118105357</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.10032805747433</v>
+        <v>32.13081165099918</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.10032805747433</v>
+        <v>34.70757506868135</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.10032805747433</v>
+        <v>15.45742243442423</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.10032805747433</v>
+        <v>30.34106943039141</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.10032805747433</v>
+        <v>35.80453182158514</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.10032805747433</v>
+        <v>5.998878470117955</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.10032805747433</v>
+        <v>32.26640452572637</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.10032805747433</v>
+        <v>38.70550877394173</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.10032805747433</v>
+        <v>14.7561644390668</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.10032805747433</v>
+        <v>25.29824013431793</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.10032805747433</v>
+        <v>30.78272169781944</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.10032805747433</v>
+        <v>22.28385079940965</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.10032805747433</v>
+        <v>29.81139283876818</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.10032805747433</v>
+        <v>33.60403530664694</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.10032805747433</v>
+        <v>33.00754950642867</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.10032805747433</v>
+        <v>39.08672269458536</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.10032805747433</v>
+        <v>41.66349905108568</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.10032805747433</v>
+        <v>22.41306524150233</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.10032805747433</v>
+        <v>37.29697362530491</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.10032805747433</v>
+        <v>42.76053890687176</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.10032805747433</v>
+        <v>4.22000443063602</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.10032805747433</v>
+        <v>30.4852336034633</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.10032805747433</v>
+        <v>36.92336938401438</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.10032805747433</v>
+        <v>12.97808457886815</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.10032805747433</v>
+        <v>23.51799312899838</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.10032805747433</v>
+        <v>29.00200128176838</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.10032805747433</v>
+        <v>20.50420121398524</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.10032805747433</v>
+        <v>28.03017399746492</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.10032805747433</v>
+        <v>31.82242381641485</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.10032805747433</v>
+        <v>31.2253260233853</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.10032805747433</v>
+        <v>37.30356964402328</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.10032805747433</v>
+        <v>39.87999424481261</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.10032805747433</v>
+        <v>20.63162643317643</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.10032805747433</v>
+        <v>35.5135626267335</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.10032805747433</v>
+        <v>40.97623815980903</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.10032805747433</v>
+        <v>8.514425348730395</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.10032805747433</v>
+        <v>34.78219490288227</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.10032805747433</v>
+        <v>41.22122199400478</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.10032805747433</v>
+        <v>17.27203997288613</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.10032805747433</v>
+        <v>27.81398457985169</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.10032805747433</v>
+        <v>33.29842938154097</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.10032805747433</v>
+        <v>32.32701149821803</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.10032805747433</v>
+        <v>36.11963546913402</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.10032805747433</v>
+        <v>35.5227899047499</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.10032805747433</v>
+        <v>41.60193410662878</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.10032805747433</v>
+        <v>44.17869288025263</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.10032805747433</v>
+        <v>24.92824360455874</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.10032805747433</v>
+        <v>39.81211987582485</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.10032805747433</v>
+        <v>45.27558928224612</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.10032805747433</v>
+        <v>15.46873262922001</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.10032805747433</v>
+        <v>41.73643312637391</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.10032805747433</v>
+        <v>48.17552499061439</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.10032805747433</v>
+        <v>24.22643370499263</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.10032805747433</v>
+        <v>34.76869296543786</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.10032805747433</v>
+        <v>40.25317890126</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.10032805747433</v>
+        <v>31.75430395770983</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.10032805747433</v>
+        <v>39.2819943358284</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.10032805747433</v>
+        <v>43.07464212269342</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.10032805747433</v>
+        <v>42.47799435059009</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.10032805747433</v>
+        <v>48.55725126374323</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.10032805747433</v>
+        <v>51.1340229777624</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.10032805747433</v>
+        <v>31.88329254796126</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.10032805747433</v>
+        <v>46.76743018714937</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.10032805747433</v>
+        <v>52.23100248775533</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.10032805747433</v>
+        <v>3.35902563154529</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.10032805747433</v>
+        <v>29.62412969971392</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.10032805747433</v>
+        <v>36.06202240359634</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.10032805747433</v>
+        <v>12.1171232641813</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.10032805747433</v>
+        <v>22.65705744475842</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.10032805747433</v>
+        <v>28.14084782976162</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.10032805747433</v>
+        <v>19.64311449970118</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.10032805747433</v>
+        <v>27.16912940345643</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.10032805747433</v>
+        <v>30.96122392279021</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.10032805747433</v>
+        <v>30.364130407074</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.10032805747433</v>
+        <v>36.44237204309029</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.10032805747433</v>
+        <v>39.01868931561312</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.10032805747433</v>
+        <v>19.7704428446098</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.10032805747433</v>
+        <v>34.65239601148544</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.10032805747433</v>
+        <v>40.11483455470379</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.10032805747433</v>
+        <v>7.653914151977045</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.10032805747433</v>
+        <v>33.92155859637266</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.10032805747433</v>
+        <v>40.36034257505348</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.10032805747433</v>
+        <v>16.41154627507084</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.10032805747433</v>
+        <v>26.95351650155684</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.10032805747433</v>
+        <v>32.43774350629739</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.10032805747433</v>
+        <v>23.93900343477769</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.10032805747433</v>
+        <v>31.46643452002824</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.10032805747433</v>
+        <v>35.25890316810994</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.10032805747433</v>
+        <v>34.66206187583468</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.10032805747433</v>
+        <v>40.74120408880167</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.10032805747433</v>
+        <v>43.31785551579405</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.10032805747433</v>
+        <v>24.06752760443923</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.10032805747433</v>
+        <v>38.95142084656861</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.10032805747433</v>
+        <v>44.41465322454751</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.10032805747433</v>
+        <v>14.60858073306376</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.10032805747433</v>
+        <v>23.36629930697533</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.10032805747433</v>
+        <v>33.90858418542648</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.10032805747433</v>
+        <v>39.39285232474963</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.10032805747433</v>
+        <v>30.89404417792131</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.10032805747433</v>
+        <v>38.42177666985133</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.10032805747433</v>
+        <v>42.21426913175507</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.10032805747433</v>
+        <v>41.61762561939524</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.10032805747433</v>
+        <v>47.69688054289502</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.10032805747433</v>
+        <v>50.2735449103465</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.10032805747433</v>
+        <v>31.02293584670489</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.10032805747433</v>
+        <v>45.90709045235114</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.10032805747433</v>
+        <v>51.37042572438251</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.10032805747433</v>
+        <v>-2.619516994278985</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.10032805747433</v>
+        <v>23.64547709478556</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.10032805747433</v>
+        <v>30.08351597913206</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.10032805747433</v>
+        <v>6.138245413314888</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.10032805747433</v>
+        <v>16.67800097994465</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.10032805747433</v>
+        <v>22.16191343168422</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.10032805747433</v>
+        <v>13.66419355301404</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.10032805747433</v>
+        <v>21.19005715542805</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.10032805747433</v>
+        <v>24.98223919390538</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.10032805747433</v>
+        <v>24.3852492044504</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.10032805747433</v>
+        <v>30.46339959808828</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.10032805747433</v>
+        <v>33.03978200269175</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.10032805747433</v>
+        <v>13.79172002248496</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.10032805747433</v>
+        <v>28.67342817496585</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.10032805747433</v>
+        <v>34.13600181986776</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.10032805747433</v>
+        <v>1.673707355055779</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.10032805747433</v>
+        <v>27.94124182798684</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.10032805747433</v>
+        <v>34.38017202219093</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.10032805747433</v>
+        <v>10.43100418979547</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.10032805747433</v>
+        <v>20.97279581786101</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.10032805747433</v>
+        <v>26.45714491730307</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.10032805747433</v>
+        <v>17.95841823034031</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.10032805747433</v>
+        <v>25.48569802170747</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.10032805747433</v>
+        <v>29.27825421269965</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.10032805747433</v>
+        <v>28.68151645340496</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.10032805747433</v>
+        <v>34.76056742636551</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.10032805747433</v>
+        <v>37.33728400288264</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.10032805747433</v>
+        <v>18.08714057559045</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.10032805747433</v>
+        <v>32.97078880581891</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.10032805747433</v>
+        <v>38.43415632725082</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.10032805747433</v>
+        <v>8.628486741989075</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.10032805747433</v>
+        <v>34.89595219022469</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.10032805747433</v>
+        <v>41.33494714694034</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.10032805747433</v>
+        <v>17.38587003882064</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.10032805747433</v>
+        <v>27.92797634101388</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.10032805747433</v>
+        <v>33.41236656625647</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.10032805747433</v>
+        <v>24.91357179264552</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.10032805747433</v>
+        <v>32.44115300828905</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.10032805747433</v>
+        <v>36.23373300881046</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.10032805747433</v>
+        <v>35.63719302498195</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.10032805747433</v>
+        <v>41.71635671836331</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.10032805747433</v>
+        <v>44.29308623156696</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.10032805747433</v>
+        <v>25.04266163097865</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.10032805747433</v>
+        <v>39.92657125647445</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.10032805747433</v>
+        <v>45.39004166065381</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.10032805747433</v>
+        <v>1.267062990106336</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.10032805747433</v>
+        <v>27.53249021549054</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.10032805747433</v>
+        <v>33.97065988654496</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.10032805747433</v>
+        <v>10.02510945563669</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.10032805747433</v>
+        <v>20.56507628390061</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.10032805747433</v>
+        <v>26.04910524386848</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.10032805747433</v>
+        <v>17.55123062598947</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.10032805747433</v>
+        <v>25.07724161954665</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.10032805747433</v>
+        <v>28.86950580893453</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.10032805747433</v>
+        <v>28.27245424834659</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.10032805747433</v>
+        <v>34.35073437915564</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.10032805747433</v>
+        <v>36.92717062216734</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.10032805747433</v>
+        <v>17.67871959976427</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.10032805747433</v>
+        <v>32.56073760150052</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.10032805747433</v>
+        <v>38.02343250295387</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.10032805747433</v>
+        <v>5.561286079800578</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.10032805747433</v>
+        <v>31.82925370963737</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.10032805747433</v>
+        <v>38.26831469847779</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.10032805747433</v>
+        <v>14.31886700613238</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.10032805747433</v>
+        <v>24.86086990965513</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.10032805747433</v>
+        <v>30.3453355208192</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.10032805747433</v>
+        <v>21.84645410645741</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.10032805747433</v>
+        <v>29.37388129938408</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.10032805747433</v>
+        <v>33.16651964320231</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.10032805747433</v>
+        <v>32.56972031470643</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.10032805747433</v>
+        <v>38.6489010348868</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.10032805747433</v>
+        <v>41.22567145269129</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.10032805747433</v>
+        <v>21.97513895131685</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.10032805747433</v>
+        <v>36.85909704828025</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.10032805747433</v>
+        <v>42.32258582910269</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.10032805747433</v>
+        <v>12.51588782262119</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.10032805747433</v>
+        <v>38.78378640107955</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.10032805747433</v>
+        <v>45.22291216315811</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.10032805747433</v>
+        <v>21.27355520690439</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.10032805747433</v>
+        <v>31.81587277075407</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.10032805747433</v>
+        <v>37.30037951558124</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.10032805747433</v>
+        <v>28.80143001449146</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.10032805747433</v>
+        <v>36.32915862040458</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.10032805747433</v>
+        <v>40.12182077957293</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.10032805747433</v>
+        <v>39.52521923980184</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.10032805747433</v>
+        <v>45.6045126741398</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.10032805747433</v>
+        <v>48.18129603235984</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.10032805747433</v>
+        <v>28.9304823678148</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.10032805747433</v>
+        <v>43.81470184050526</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.10032805747433</v>
+        <v>49.27829351540849</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.10032805747433</v>
+        <v>7.530268783776858</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.10032805747433</v>
+        <v>33.79570616002313</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.10032805747433</v>
+        <v>40.23369580648072</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.10032805747433</v>
+        <v>16.28861450106301</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.10032805747433</v>
+        <v>26.82873545134263</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.10032805747433</v>
+        <v>32.31261222380571</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.10032805747433</v>
+        <v>23.81479117546534</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.10032805747433</v>
+        <v>31.3409450602317</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.10032805747433</v>
+        <v>35.1331047835577</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.10032805747433</v>
+        <v>34.53592823028286</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.10032805747433</v>
+        <v>40.61425381573478</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.10032805747433</v>
+        <v>43.19061115371407</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.10032805747433</v>
+        <v>23.94202816172496</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.10032805747433</v>
+        <v>38.82420989899008</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.10032805747433</v>
+        <v>44.28674019098712</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.10032805747433</v>
+        <v>11.82431511124018</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.10032805747433</v>
+        <v>38.09229288755994</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.10032805747433</v>
+        <v>44.53117381951101</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.10032805747433</v>
+        <v>20.58219527784062</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.10032805747433</v>
+        <v>31.12435229982922</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.10032805747433</v>
+        <v>36.60866569777549</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.10032805747433</v>
+        <v>28.10983787778677</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.10032805747433</v>
+        <v>35.63740796190091</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.10032805747433</v>
+        <v>39.42994181921374</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.10032805747433</v>
+        <v>38.83301750063929</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.10032805747433</v>
+        <v>44.9122436716023</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.10032805747433</v>
+        <v>47.4889351690944</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.10032805747433</v>
+        <v>28.2382707281536</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.10032805747433</v>
+        <v>43.1223925579482</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.10032805747433</v>
+        <v>48.58571669677501</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.10032805747433</v>
+        <v>18.77860129084926</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.10032805747433</v>
+        <v>45.04651002018902</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.10032805747433</v>
+        <v>51.48545571617539</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.10032805747433</v>
+        <v>27.536567895417</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.10032805747433</v>
+        <v>38.07903957148191</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.10032805747433</v>
+        <v>43.56339409950481</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.10032805747433</v>
+        <v>35.06449819872357</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.10032805747433</v>
+        <v>42.59236969181897</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.10032805747433</v>
+        <v>46.38492735987715</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.10032805747433</v>
+        <v>45.78820083185057</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.10032805747433</v>
+        <v>51.8675397139247</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.10032805747433</v>
+        <v>54.44424415020528</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.10032805747433</v>
+        <v>35.19329856455458</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.10032805747433</v>
+        <v>50.07768176026859</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.10032805747433</v>
+        <v>55.54110878827798</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.10032805747433</v>
+        <v>-5.795218121288219</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.10032805747433</v>
+        <v>20.46929270032141</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.10032805747433</v>
+        <v>26.90723702142945</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.10032805747433</v>
+        <v>2.962168863474556</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.10032805747433</v>
+        <v>13.50178263002696</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.10032805747433</v>
+        <v>18.9855504053999</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.10032805747433</v>
+        <v>10.48797709384455</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.10032805747433</v>
+        <v>18.0137052425644</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.10032805747433</v>
+        <v>21.80580923851157</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.10032805747433</v>
+        <v>21.2088936310029</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.10032805747433</v>
+        <v>27.28693060271375</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.10032805747433</v>
+        <v>29.86326493692597</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.10032805747433</v>
+        <v>10.61559796726094</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.10032805747433</v>
+        <v>25.49697807390752</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.10032805747433</v>
+        <v>30.95947234966347</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.10032805747433</v>
+        <v>-1.502362980947925</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.10032805747433</v>
+        <v>24.76468818921925</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.10032805747433</v>
+        <v>31.20352381923071</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.10032805747433</v>
+        <v>7.254558442004093</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.10032805747433</v>
+        <v>17.79620823589157</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.10032805747433</v>
+        <v>23.28041266214897</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.10032805747433</v>
+        <v>14.78183254130662</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.10032805747433</v>
+        <v>22.30897685476854</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.10032805747433</v>
+        <v>26.10145500770345</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.10032805747433</v>
+        <v>25.50479161533501</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.10032805747433</v>
+        <v>31.58372915220881</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.10032805747433</v>
+        <v>34.16039765601651</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.10032805747433</v>
+        <v>14.91064926365543</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.10032805747433</v>
+        <v>29.79396941926727</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.10032805747433</v>
+        <v>35.25725757126024</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.10032805747433</v>
+        <v>5.452522753885926</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.10032805747433</v>
+        <v>31.7195049104129</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.10032805747433</v>
+        <v>38.15840530591645</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.10032805747433</v>
+        <v>14.20953064616178</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.10032805747433</v>
+        <v>24.75149511051022</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.10032805747433</v>
+        <v>30.23574066501162</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.10032805747433</v>
+        <v>21.7370924582987</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.10032805747433</v>
+        <v>29.26453819546525</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.10032805747433</v>
+        <v>33.0570401598133</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.10032805747433</v>
+        <v>32.46057452902544</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.10032805747433</v>
+        <v>38.5396247876909</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.10032805747433</v>
+        <v>41.11630622880948</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.10032805747433</v>
+        <v>21.86627665637597</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.10032805747433</v>
+        <v>36.7498582130526</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.10032805747433</v>
+        <v>42.21324924839159</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.10032805747433</v>
+        <v>-1.772141964412487</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.10032805747433</v>
+        <v>24.49283924050694</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.10032805747433</v>
+        <v>30.93074387633412</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.10032805747433</v>
+        <v>6.985638559060515</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.10032805747433</v>
+        <v>17.52549817254718</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.10032805747433</v>
+        <v>23.00923113784181</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.10032805747433</v>
+        <v>14.5115527533466</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.10032805747433</v>
+        <v>22.03748184794021</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.10032805747433</v>
+        <v>25.82955398119115</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.10032805747433</v>
+        <v>25.23252526198932</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.10032805747433</v>
+        <v>31.31071409035091</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.10032805747433</v>
+        <v>33.88702576281109</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.10032805747433</v>
+        <v>14.63894853918377</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.10032805747433</v>
+        <v>29.52073364716732</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.10032805747433</v>
+        <v>34.98316481559259</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.10032805747433</v>
+        <v>2.52197258849689</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.10032805747433</v>
+        <v>28.78949417368328</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.10032805747433</v>
+        <v>35.22829009947934</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.10032805747433</v>
+        <v>11.27928757688066</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.10032805747433</v>
+        <v>21.82118323557351</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.10032805747433</v>
+        <v>27.30535283182261</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.10032805747433</v>
+        <v>18.80666768087444</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.10032805747433</v>
+        <v>26.3340129546646</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.10032805747433</v>
+        <v>30.12645922774133</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.10032805747433</v>
+        <v>29.52968272593345</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.10032805747433</v>
+        <v>35.60877213052599</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.10032805747433</v>
+        <v>38.18541796211188</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.10032805747433</v>
+        <v>18.93525929603599</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.10032805747433</v>
+        <v>33.81898447948031</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.10032805747433</v>
+        <v>39.28220949794665</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.10032805747433</v>
+        <v>9.476985176676902</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.10032805747433</v>
+        <v>35.74443773445459</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.10032805747433</v>
+        <v>42.18329842980135</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.10032805747433</v>
+        <v>18.23438662705238</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.10032805747433</v>
+        <v>28.77659694751518</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.10032805747433</v>
+        <v>34.26080767833689</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.10032805747433</v>
+        <v>25.7620544527878</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.10032805747433</v>
+        <v>33.28970114273993</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.10032805747433</v>
+        <v>37.08217122993874</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.10032805747433</v>
+        <v>36.48559249645329</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.10032805747433</v>
+        <v>42.56479461746282</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.10032805747433</v>
+        <v>45.14145338911764</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.10032805747433</v>
+        <v>25.89101355421148</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.10032805747433</v>
+        <v>40.77500011956697</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.10032805747433</v>
+        <v>46.23832802991801</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.10032805747433</v>
+        <v>-4.292384230823661</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.10032805747433</v>
+        <v>21.97242665401852</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.10032805747433</v>
+        <v>28.41034025370167</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.10032805747433</v>
+        <v>4.465210735538601</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.10032805747433</v>
+        <v>15.00493384371559</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.10032805747433</v>
+        <v>20.48869459789868</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.10032805747433</v>
+        <v>11.99108123896717</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.10032805747433</v>
+        <v>19.51690644078932</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.10032805747433</v>
+        <v>23.30899661782682</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.10032805747433</v>
+        <v>22.71204868489614</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.10032805747433</v>
+        <v>28.79016021633781</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.10032805747433</v>
+        <v>31.36648171439667</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.10032805747433</v>
+        <v>12.11862761916158</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.10032805747433</v>
+        <v>27.00021120002104</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.10032805747433</v>
+        <v>32.46266055971891</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.10032805747433</v>
+        <v>0.0009135999451181931</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.10032805747433</v>
+        <v>26.268264862007</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.10032805747433</v>
+        <v>32.70706975638159</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.10032805747433</v>
+        <v>8.758042996108241</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.10032805747433</v>
+        <v>19.29980215142454</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.10032805747433</v>
+        <v>24.78399954209344</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.10032805747433</v>
+        <v>16.28537939577215</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.10032805747433</v>
+        <v>23.81262077637431</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.10032805747433</v>
+        <v>27.60508509811249</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.10032805747433</v>
+        <v>27.00838937844871</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.10032805747433</v>
+        <v>33.0874014840753</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.10032805747433</v>
+        <v>35.66405714503314</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.10032805747433</v>
+        <v>16.41412161211398</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.10032805747433</v>
+        <v>31.29764526585192</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.10032805747433</v>
+        <v>36.76088848522743</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.10032805747433</v>
+        <v>6.95601371344075</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.10032805747433</v>
+        <v>33.22329596251056</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.10032805747433</v>
+        <v>39.66216561975425</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.10032805747433</v>
+        <v>15.71322957296983</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.10032805747433</v>
+        <v>26.25530340215918</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.10032805747433</v>
+        <v>31.73954192032503</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.10032805747433</v>
+        <v>23.2408536966714</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.10032805747433</v>
+        <v>30.76839650320396</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.10032805747433</v>
+        <v>34.5608846344217</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.10032805747433</v>
+        <v>33.96438667359125</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.10032805747433</v>
+        <v>40.04351150132122</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.10032805747433</v>
+        <v>42.62018009917556</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.10032805747433</v>
+        <v>23.36996338296778</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.10032805747433</v>
+        <v>38.25374843705758</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.10032805747433</v>
+        <v>43.71709453952694</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.10032805747433</v>
+        <v>-8.196081227195652</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.10032805747433</v>
+        <v>18.06810968364668</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.10032805747433</v>
+        <v>24.5058823804183</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.10032805747433</v>
+        <v>0.5611198330597453</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.10032805747433</v>
+        <v>11.10056349948938</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.10032805747433</v>
+        <v>16.58417336077575</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.10032805747433</v>
+        <v>8.086753300279309</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.10032805747433</v>
+        <v>15.61236656364353</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.10032805747433</v>
+        <v>19.40435516614154</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.10032805747433</v>
+        <v>18.80747559442481</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.10032805747433</v>
+        <v>24.88543691847762</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.10032805747433</v>
+        <v>27.46169966926236</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.10032805747433</v>
+        <v>8.214358544548457</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.10032805747433</v>
+        <v>23.09554649133672</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.10032805747433</v>
+        <v>28.55786748680013</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.10032805747433</v>
+        <v>-3.902617265601595</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.10032805747433</v>
+        <v>22.36411397305293</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.10032805747433</v>
+        <v>28.80277795248336</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.10032805747433</v>
+        <v>4.854118243129886</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.10032805747433</v>
+        <v>15.39559791235324</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.10032805747433</v>
+        <v>20.87964440654109</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.10032805747433</v>
+        <v>12.38121757944104</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.10032805747433</v>
+        <v>19.90824699129227</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.10032805747433</v>
+        <v>23.70060973559411</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.10032805747433</v>
+        <v>23.10398236046789</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.10032805747433</v>
+        <v>29.18284424087816</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.10032805747433</v>
+        <v>31.75944114984786</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.10032805747433</v>
+        <v>12.51001861881586</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.10032805747433</v>
+        <v>27.39314659983851</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.10032805747433</v>
+        <v>32.85626144468749</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.10032805747433</v>
+        <v>3.052680011880437</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.10032805747433</v>
+        <v>29.3193422448865</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.10032805747433</v>
+        <v>35.75807098964928</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.10032805747433</v>
+        <v>11.80950199297846</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.10032805747433</v>
+        <v>22.35129633239971</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.10032805747433</v>
+        <v>27.83538395670147</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.10032805747433</v>
+        <v>19.33688905660271</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.10032805747433</v>
+        <v>26.86421989050602</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.10032805747433</v>
+        <v>30.65660644643451</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.10032805747433</v>
+        <v>30.060176817829</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.10032805747433</v>
+        <v>36.13915141953605</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.10032805747433</v>
+        <v>38.71576126641394</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.10032805747433</v>
+        <v>19.46605754736428</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.10032805747433</v>
+        <v>34.34944692916319</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.10032805747433</v>
+        <v>39.81266465861783</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.10032805747433</v>
+        <v>-2.325027084597952</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.10032805747433</v>
+        <v>23.94033087942152</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.10032805747433</v>
+        <v>30.37856518212349</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.10032805747433</v>
+        <v>6.432863427023829</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.10032805747433</v>
+        <v>16.97273946639977</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.10032805747433</v>
+        <v>22.45682163314465</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.10032805747433</v>
+        <v>13.95893742967534</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.10032805747433</v>
+        <v>21.48487207570342</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.10032805747433</v>
+        <v>25.27717406570109</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.10032805747433</v>
+        <v>24.68019059626571</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.10032805747433</v>
+        <v>30.75842556350691</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.10032805747433</v>
+        <v>33.33489108659823</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.10032805747433</v>
+        <v>14.08653212214294</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.10032805747433</v>
+        <v>28.96843333469682</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.10032805747433</v>
+        <v>34.43118854464562</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.10032805747433</v>
+        <v>1.968268937476335</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.10032805747433</v>
+        <v>28.23616730459132</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.10032805747433</v>
+        <v>34.6752929392092</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.10032805747433</v>
+        <v>10.72569387749597</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.10032805747433</v>
+        <v>21.26760599497747</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.10032805747433</v>
+        <v>26.75212482408896</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.10032805747433</v>
+        <v>18.25323379493845</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.10032805747433</v>
+        <v>25.78058464061796</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.10032805747433</v>
+        <v>29.57326079435556</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.10032805747433</v>
+        <v>28.97652956665653</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.10032805747433</v>
+        <v>35.05566512241596</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.10032805747433</v>
+        <v>37.63246482799074</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.10032805747433</v>
+        <v>18.38202438843852</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.10032805747433</v>
+        <v>33.26586569335647</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.10032805747433</v>
+        <v>38.72941480015849</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.10032805747433</v>
+        <v>8.922968242779501</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.10032805747433</v>
+        <v>35.19079756740727</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.10032805747433</v>
+        <v>41.62998797263667</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.10032805747433</v>
+        <v>17.68047964588554</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.10032805747433</v>
+        <v>28.22270643422591</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.10032805747433</v>
+        <v>33.70726639379727</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.10032805747433</v>
+        <v>25.20830727314573</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.10032805747433</v>
+        <v>32.73595954012994</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.10032805747433</v>
+        <v>36.52865950759694</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.10032805747433</v>
+        <v>35.93212606597972</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.10032805747433</v>
+        <v>42.01137434086802</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.10032805747433</v>
+        <v>44.58818698488112</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.10032805747433</v>
+        <v>25.33746537297058</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.10032805747433</v>
+        <v>40.22156806687239</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.10032805747433</v>
+        <v>45.68522006382982</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.10032805747433</v>
+        <v>-3.373587056955973</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.10032805747433</v>
+        <v>22.89113585673628</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.10032805747433</v>
+        <v>29.32906260989789</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.10032805747433</v>
+        <v>5.384024009453054</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.10032805747433</v>
+        <v>15.92375452070148</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.10032805747433</v>
+        <v>21.40750517172414</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.10032805747433</v>
+        <v>12.90988419302668</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.10032805747433</v>
+        <v>20.43570609214104</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.10032805747433</v>
+        <v>24.22779887058315</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.10032805747433</v>
+        <v>23.63081864998939</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.10032805747433</v>
+        <v>29.7089230546059</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.10032805747433</v>
+        <v>32.28524579539275</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.10032805747433</v>
+        <v>13.03739240434349</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.10032805747433</v>
+        <v>27.91895304016206</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.10032805747433</v>
+        <v>33.38141922022992</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.10032805747433</v>
+        <v>0.9195889708088707</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.10032805747433</v>
+        <v>27.18685224593291</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.10032805747433</v>
+        <v>33.62567029510642</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.10032805747433</v>
+        <v>9.676734477402686</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.10032805747433</v>
+        <v>20.21850102208752</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.10032805747433</v>
+        <v>25.70268831198784</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.10032805747433</v>
+        <v>17.20406054505262</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.10032805747433</v>
+        <v>24.7312986132412</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.10032805747433</v>
+        <v>28.52376553825153</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.10032805747433</v>
+        <v>27.9270375363955</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.10032805747433</v>
+        <v>34.00604251030386</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.10032805747433</v>
+        <v>36.5826994141626</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.10032805747433</v>
+        <v>17.33276459700771</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.10032805747433</v>
+        <v>32.21626529201414</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.10032805747433</v>
+        <v>37.679525332561</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.10032805747433</v>
+        <v>7.874496275196446</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.10032805747433</v>
+        <v>34.14169053163066</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.10032805747433</v>
+        <v>40.58057334673735</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.10032805747433</v>
+        <v>16.63172824426469</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.10032805747433</v>
+        <v>27.17380945602239</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.10032805747433</v>
+        <v>32.65803787634961</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.10032805747433</v>
+        <v>24.15934202889313</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.10032805747433</v>
+        <v>31.68688151793974</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.10032805747433</v>
+        <v>35.47937225465618</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.10032805747433</v>
+        <v>34.88284201708124</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.10032805747433</v>
+        <v>40.96195971071818</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.10032805747433</v>
+        <v>43.53862955281447</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.10032805747433</v>
+        <v>24.28841356024376</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.10032805747433</v>
+        <v>39.17217564880666</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.10032805747433</v>
+        <v>44.63553857528261</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.10032805747433</v>
+        <v>7.542769563894847</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.10032805747433</v>
+        <v>33.80844280580645</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.10032805747433</v>
+        <v>40.24667169495676</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.10032805747433</v>
+        <v>16.30115931056336</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.10032805747433</v>
+        <v>26.84128186727279</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.10032805747433</v>
+        <v>32.3253771296841</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.10032805747433</v>
+        <v>23.82744820031955</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.10032805747433</v>
+        <v>31.35358154162581</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.10032805747433</v>
+        <v>35.1458943395758</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.10032805747433</v>
+        <v>34.54873823285804</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.10032805747433</v>
+        <v>40.62709335552704</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.10032805747433</v>
+        <v>43.20355741801158</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.10032805747433</v>
+        <v>23.95480125714964</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.10032805747433</v>
+        <v>38.83702725411506</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.10032805747433</v>
+        <v>44.29979258999417</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.10032805747433</v>
+        <v>11.83668827939327</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.10032805747433</v>
+        <v>38.10490193548439</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.10032805747433</v>
+        <v>44.54402214524991</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.10032805747433</v>
+        <v>20.59461247263566</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.10032805747433</v>
+        <v>31.13677111509518</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.10032805747433</v>
+        <v>36.62130303045585</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.10032805747433</v>
+        <v>28.1223672938185</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.10032805747433</v>
+        <v>35.64991684231443</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.10032805747433</v>
+        <v>39.44260379567042</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.10032805747433</v>
+        <v>38.84569993027462</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.10032805747433</v>
+        <v>44.9249556457733</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.10032805747433</v>
+        <v>47.50175388503878</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.10032805747433</v>
+        <v>28.25091624099643</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.10032805747433</v>
+        <v>43.13508234119404</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.10032805747433</v>
+        <v>48.59864156067287</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.10032805747433</v>
+        <v>18.79082777708645</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.10032805747433</v>
+        <v>45.05897237332708</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.10032805747433</v>
+        <v>51.49815735411453</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.10032805747433</v>
+        <v>27.54883841121527</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.10032805747433</v>
+        <v>38.09131170929463</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.10032805747433</v>
+        <v>43.57588475814957</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.10032805747433</v>
+        <v>35.07688092966855</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.10032805747433</v>
+        <v>42.60473188759276</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.10032805747433</v>
+        <v>46.39744265596759</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.10032805747433</v>
+        <v>45.80073659016698</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.10032805747433</v>
+        <v>51.88010501728313</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.10032805747433</v>
+        <v>54.4569161965059</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.10032805747433</v>
+        <v>35.20579740264729</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.10032805747433</v>
+        <v>50.09022487055658</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.10032805747433</v>
+        <v>55.55388698403264</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.10032805747433</v>
+        <v>1.731137824545424</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.10032805747433</v>
+        <v>27.99597374517877</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.10032805747433</v>
+        <v>34.43407334674434</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.10032805747433</v>
+        <v>10.4889875359551</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.10032805747433</v>
+        <v>21.02868318627865</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.10032805747433</v>
+        <v>26.51266240163094</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.10032805747433</v>
+        <v>18.01497256365364</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.10032805747433</v>
+        <v>25.54078691710451</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.10032805747433</v>
+        <v>29.33301535680918</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.10032805747433</v>
+        <v>28.73598009224524</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.10032805747433</v>
+        <v>34.81411278430294</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.10032805747433</v>
+        <v>37.39052438153412</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.10032805747433</v>
+        <v>18.14248529741796</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.10032805747433</v>
+        <v>33.02414604747291</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.10032805747433</v>
+        <v>38.48678732750254</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.10032805747433</v>
+        <v>6.024927606974455</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.10032805747433</v>
+        <v>32.2923038714129</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.10032805747433</v>
+        <v>38.73129477849447</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.10032805747433</v>
+        <v>14.7823117784183</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.10032805747433</v>
+        <v>25.32404345766785</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.10032805747433</v>
+        <v>30.80845932225354</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.10032805747433</v>
+        <v>22.30976269702164</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.10032805747433</v>
+        <v>29.83699321687054</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.10032805747433</v>
+        <v>33.62959580808221</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.10032805747433</v>
+        <v>33.03281277834201</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.10032805747433</v>
+        <v>39.11184603829115</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.10032805747433</v>
+        <v>41.68859180838926</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.10032805747433</v>
+        <v>22.4384712928492</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.10032805747433</v>
+        <v>37.32207209051823</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.10032805747433</v>
+        <v>42.78550724258291</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.10032805747433</v>
+        <v>12.97919530737333</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.10032805747433</v>
+        <v>39.2465025188814</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.10032805747433</v>
+        <v>45.68555819738815</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.10032805747433</v>
+        <v>21.73666593102432</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.10032805747433</v>
+        <v>32.27871226587426</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.10032805747433</v>
+        <v>37.76316926205122</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.10032805747433</v>
+        <v>29.26440454587161</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.10032805747433</v>
+        <v>36.79193647304457</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.10032805747433</v>
+        <v>40.58456287883921</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.10032805747433</v>
+        <v>39.98797763737564</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.10032805747433</v>
+        <v>46.06712360995714</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.10032805747433</v>
+        <v>48.64388231948912</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.10032805747433</v>
+        <v>29.39348064797984</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.10032805747433</v>
+        <v>44.2773428169093</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.10032805747433</v>
+        <v>49.74088086023055</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.10032805747433</v>
+        <v>-0.5617446272242042</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.10032805747433</v>
+        <v>25.70387957611005</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.10032805747433</v>
+        <v>32.14207107401607</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.10032805747433</v>
+        <v>8.196284293158595</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.10032805747433</v>
+        <v>18.73637277183313</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.10032805747433</v>
+        <v>24.22037757645618</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.10032805747433</v>
+        <v>15.72245175678681</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.10032805747433</v>
+        <v>23.24853615083684</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.10032805747433</v>
+        <v>27.04079783602871</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.10032805747433</v>
+        <v>26.44375912142906</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.10032805747433</v>
+        <v>32.52208032816343</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.10032805747433</v>
+        <v>35.09851542341089</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.10032805747433</v>
+        <v>15.84993682977897</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.10032805747433</v>
+        <v>30.73204291049789</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.10032805747433</v>
+        <v>36.1947497987433</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.10032805747433</v>
+        <v>3.731822479591795</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.10032805747433</v>
+        <v>29.99998711774394</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.10032805747433</v>
+        <v>36.43906994246827</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.10032805747433</v>
+        <v>12.48938583595752</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.10032805747433</v>
+        <v>23.03151041020957</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.10032805747433</v>
+        <v>28.51595187043442</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.10032805747433</v>
+        <v>20.0170192329039</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.10032805747433</v>
+        <v>27.54451983961478</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.10032805747433</v>
+        <v>31.3371556842266</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.10032805747433</v>
+        <v>30.74036920384769</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.10032805747433</v>
+        <v>36.81959100782915</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.10032805747433</v>
+        <v>39.39636027901217</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.10032805747433</v>
+        <v>20.14570019355078</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.10032805747433</v>
+        <v>35.02974639057952</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.10032805747433</v>
+        <v>40.49324716692051</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.10032805747433</v>
+        <v>10.68664251360512</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.10032805747433</v>
+        <v>36.95473811733397</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.10032805747433</v>
+        <v>43.39388571220381</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.10032805747433</v>
+        <v>19.44429233159762</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.10032805747433</v>
+        <v>29.98673157630484</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.10032805747433</v>
+        <v>35.47121416957843</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.10032805747433</v>
+        <v>26.9722134439866</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.10032805747433</v>
+        <v>34.5000154747086</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.10032805747433</v>
+        <v>38.2926751333171</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.10032805747433</v>
+        <v>37.69608643488839</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.10032805747433</v>
+        <v>43.77542095850588</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.10032805747433</v>
+        <v>46.35220316935049</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.10032805747433</v>
+        <v>27.10126191014937</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.10032805747433</v>
+        <v>41.9855694982122</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.10032805747433</v>
+        <v>47.44917316635046</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.10032805747433</v>
+        <v>-3.043736286405267</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.10032805747433</v>
+        <v>23.22099813393781</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.10032805747433</v>
+        <v>29.65909415734886</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.10032805747433</v>
+        <v>5.713908609375761</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.10032805747433</v>
+        <v>16.25353039211181</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.10032805747433</v>
+        <v>21.73749351777012</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.10032805747433</v>
+        <v>13.23979980411029</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.10032805747433</v>
+        <v>20.76555328641909</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.10032805747433</v>
+        <v>24.55777414318952</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.10032805747433</v>
+        <v>23.9608126067573</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.10032805747433</v>
+        <v>30.03889992914098</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.10032805747433</v>
+        <v>32.61530913006679</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.10032805747433</v>
+        <v>13.36740625105783</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.10032805747433</v>
+        <v>28.24893952975951</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.10032805747433</v>
+        <v>33.71158039345475</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.10032805747433</v>
+        <v>1.249501208440204</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.10032805747433</v>
+        <v>27.51677597906057</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.10032805747433</v>
+        <v>33.95576332025637</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.10032805747433</v>
+        <v>10.00668054788768</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.10032805747433</v>
+        <v>20.54833836755385</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.10032805747433</v>
+        <v>26.0327381508129</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.10032805747433</v>
+        <v>17.53403762546308</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.10032805747433</v>
+        <v>25.06120727912313</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.10032805747433</v>
+        <v>28.85380229562206</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.10032805747433</v>
+        <v>28.25709299166082</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.10032805747433</v>
+        <v>34.33608088330236</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.10032805747433</v>
+        <v>36.91282426129696</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.10032805747433</v>
+        <v>17.66283994734583</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.10032805747433</v>
+        <v>32.54631327870588</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.10032805747433</v>
+        <v>38.00974802657883</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.10032805747433</v>
+        <v>8.204033550569118</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.10032805747433</v>
+        <v>34.47123928409808</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.10032805747433</v>
+        <v>40.91029139385584</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.10032805747433</v>
+        <v>16.96129935143317</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.10032805747433</v>
+        <v>27.50327183821086</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.10032805747433</v>
+        <v>32.98771274931202</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.10032805747433</v>
+        <v>24.48894413176712</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.10032805747433</v>
+        <v>32.01641520278331</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.10032805747433</v>
+        <v>35.80903403173481</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.10032805747433</v>
+        <v>35.2125225072911</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.10032805747433</v>
+        <v>41.29162311750615</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.10032805747433</v>
+        <v>43.86837943295249</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.10032805747433</v>
+        <v>24.61811395164879</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.10032805747433</v>
+        <v>39.50184867135651</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.10032805747433</v>
+        <v>44.96538630521802</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.10032805747433</v>
+        <v>0.09408161333514542</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.10032805747433</v>
+        <v>26.3587962788204</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.10032805747433</v>
+        <v>32.7968975042243</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.10032805747433</v>
+        <v>8.851837082622563</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.10032805747433</v>
+        <v>19.39146140788948</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.10032805747433</v>
+        <v>24.87544227799019</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.10032805747433</v>
+        <v>16.3777703889048</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.10032805747433</v>
+        <v>23.90352880870664</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.10032805747433</v>
+        <v>27.69575822707422</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.10032805747433</v>
+        <v>27.09876048530104</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.10032805747433</v>
+        <v>33.17685513069777</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.10032805747433</v>
+        <v>35.75326956531983</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.10032805747433</v>
+        <v>16.50533952104949</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.10032805747433</v>
+        <v>31.38690153426868</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.10032805747433</v>
+        <v>36.84954928688425</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.10032805747433</v>
+        <v>4.387567392705517</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.10032805747433</v>
+        <v>30.6548223921532</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.10032805747433</v>
+        <v>37.09381492625464</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.10032805747433</v>
+        <v>13.14485731588847</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.10032805747433</v>
+        <v>23.68651766362568</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.10032805747433</v>
+        <v>29.17093518599374</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.10032805747433</v>
+        <v>20.67225650244908</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.10032805747433</v>
+        <v>28.1994310835178</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.10032805747433</v>
+        <v>31.99203465600287</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.10032805747433</v>
+        <v>31.39528915103726</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.10032805747433</v>
+        <v>37.47428436132877</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.10032805747433</v>
+        <v>40.0510329704603</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.10032805747433</v>
+        <v>20.80102150316331</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.10032805747433</v>
+        <v>35.68452355552169</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.10032805747433</v>
+        <v>41.14796518483165</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.10032805747433</v>
+        <v>11.3418607443205</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.10032805747433</v>
+        <v>37.60904669357471</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.10032805747433</v>
+        <v>44.04810399899297</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.10032805747433</v>
+        <v>20.09923712298034</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.10032805747433</v>
+        <v>30.64121212818615</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.10032805747433</v>
+        <v>36.1256707813224</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.10032805747433</v>
+        <v>27.62692400536563</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.10032805747433</v>
+        <v>35.15439999536913</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.10032805747433</v>
+        <v>38.94702738253925</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.10032805747433</v>
+        <v>38.35047966371353</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.10032805747433</v>
+        <v>44.42958758780325</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.10032805747433</v>
+        <v>47.00634913607682</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.10032805747433</v>
+        <v>27.75605650927347</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.10032805747433</v>
+        <v>42.63981993688348</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.10032805747433</v>
+        <v>48.10336445620469</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.10032805747433</v>
+        <v>3.437250865710364</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.10032805747433</v>
+        <v>29.70251404772595</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.10032805747433</v>
+        <v>36.1406269264359</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.10032805747433</v>
+        <v>12.19537385168671</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.10032805747433</v>
+        <v>22.73526688682902</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.10032805747433</v>
+        <v>28.21925743538888</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>28.10032805747433</v>
+        <v>19.72146485658815</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.10032805747433</v>
+        <v>27.24743042545337</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.10032805747433</v>
+        <v>31.03966672454071</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>28.10032805747433</v>
+        <v>30.44257301302495</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>28.10032805747433</v>
+        <v>36.52080396640888</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.10032805747433</v>
+        <v>39.09721611141872</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.10032805747433</v>
+        <v>19.84885447408753</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>28.10032805747433</v>
+        <v>34.73077620887607</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>28.10032805747433</v>
+        <v>40.19341301950844</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>28.10032805747433</v>
+        <v>7.730848745889983</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.10032805747433</v>
+        <v>33.99865231940298</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>28.10032805747433</v>
+        <v>40.43765650526545</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.10032805747433</v>
+        <v>16.48850617410021</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.10032805747433</v>
+        <v>27.03043527478432</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>28.10032805747433</v>
+        <v>32.51486246884615</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>28.10032805747433</v>
+        <v>24.01606309025116</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>28.10032805747433</v>
+        <v>31.54344485095525</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.10032805747433</v>
+        <v>35.33605529953915</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.10032805747433</v>
+        <v>34.73921382623568</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.10032805747433</v>
+        <v>40.81834536201295</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>28.10032805747433</v>
+        <v>43.39509167881515</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.10032805747433</v>
+        <v>24.14464858731155</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>28.10032805747433</v>
+        <v>39.02851040406374</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>28.10032805747433</v>
+        <v>44.49194108874569</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.10032805747433</v>
+        <v>14.68526228450916</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.10032805747433</v>
+        <v>40.95299681682359</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>28.10032805747433</v>
+        <v>47.39206576828614</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.10032805747433</v>
+        <v>23.44300616047535</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.10032805747433</v>
+        <v>33.98524992737298</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>28.10032805747433</v>
+        <v>39.46971824957375</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.10032805747433</v>
+        <v>30.97085078186164</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>28.10032805747433</v>
+        <v>38.49853396022768</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>28.10032805747433</v>
+        <v>42.29116821974314</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.10032805747433</v>
+        <v>41.69452453335423</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.10032805747433</v>
+        <v>47.77376878546538</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>28.10032805747433</v>
+        <v>50.35052804038837</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>28.10032805747433</v>
+        <v>31.09980378695824</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>28.10032805747433</v>
+        <v>45.98392698589662</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>28.10032805747433</v>
+        <v>51.447460557729</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>28.10032805747433</v>
+        <v>0.8910934411821181</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>28.10032805747433</v>
+        <v>27.15674865820339</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>28.10032805747433</v>
+        <v>33.59495648695035</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>28.10032805747433</v>
+        <v>9.649201208949119</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.10032805747433</v>
+        <v>20.18930766477164</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.10032805747433</v>
+        <v>25.67333630121872</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.10032805747433</v>
+        <v>17.17539498507055</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.10032805747433</v>
+        <v>24.70149633830844</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.10032805747433</v>
+        <v>28.49377310277775</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.10032805747433</v>
+        <v>27.89671184943226</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.10032805747433</v>
+        <v>33.97504432624002</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>28.10032805747433</v>
+        <v>36.55148836415428</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.10032805747433</v>
+        <v>17.30285796879597</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.10032805747433</v>
+        <v>32.18499699941917</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>28.10032805747433</v>
+        <v>37.64772372869577</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>28.10032805747433</v>
+        <v>5.184705540109274</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>28.10032805747433</v>
+        <v>31.4529011901631</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>28.10032805747433</v>
+        <v>37.89200034590617</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.10032805747433</v>
+        <v>13.94234774625208</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.10032805747433</v>
+        <v>24.48449029763871</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.10032805747433</v>
+        <v>29.96895559077727</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.10032805747433</v>
+        <v>21.47000745585153</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.10032805747433</v>
+        <v>28.99752502214191</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.10032805747433</v>
+        <v>32.79017594647239</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.10032805747433</v>
+        <v>32.19336692870449</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>28.10032805747433</v>
+        <v>38.27260000270205</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>28.10032805747433</v>
+        <v>40.84937821735859</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.10032805747433</v>
+        <v>21.59866632984146</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>28.10032805747433</v>
+        <v>36.48274547562725</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>28.10032805747433</v>
+        <v>41.94626609381173</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.10032805747433</v>
+        <v>12.13937971861587</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>28.10032805747433</v>
+        <v>38.40750632941153</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.10032805747433</v>
+        <v>44.84667025567084</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>28.10032805747433</v>
+        <v>20.89710838234332</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.10032805747433</v>
+        <v>31.4395656014788</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.10032805747433</v>
+        <v>36.92407202819633</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>28.10032805747433</v>
+        <v>28.42505580319793</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.10032805747433</v>
+        <v>35.95287479127357</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>28.10032805747433</v>
+        <v>39.74554952982071</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.10032805747433</v>
+        <v>39.1489382972516</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.10032805747433</v>
+        <v>45.22828408934247</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.10032805747433</v>
+        <v>47.80507524399802</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.10032805747433</v>
+        <v>28.55408218742575</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>28.10032805747433</v>
+        <v>43.43842272029319</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.10032805747433</v>
+        <v>48.90204623088634</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.2018413555683374</v>
+        <v>-0.2018413555031948</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.06327494518295</v>
+        <v>26.06327494522479</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.50147154799576</v>
+        <v>32.5014715479911</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8.556050550026992</v>
+        <v>8.556050550096227</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.09584476027684</v>
+        <v>19.09584476032016</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.57990430254976</v>
+        <v>24.57990430257591</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.0820930704554</v>
+        <v>16.08209307045597</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.60797163312888</v>
+        <v>23.60797163309432</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.40025655763933</v>
+        <v>27.40025655765946</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.80325442900054</v>
+        <v>26.80325442906466</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.88144115577181</v>
+        <v>32.88144115580626</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.45789408143848</v>
+        <v>35.4578940815441</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.2096641822465</v>
+        <v>16.20966418228958</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.09144984365109</v>
+        <v>31.09144984378774</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.5541837815769</v>
+        <v>36.55418378163999</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.091630440641705</v>
+        <v>4.091630440682177</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.35928711736612</v>
+        <v>30.35928711734043</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.79837504581887</v>
+        <v>36.79837504582569</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.84905679279124</v>
+        <v>12.84905679284365</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.39088706014199</v>
+        <v>23.39088706014381</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.87538326389248</v>
+        <v>28.87538326391238</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20.37656521467811</v>
+        <v>20.37656521469232</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.90385996261754</v>
+        <v>27.90385996260344</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31.69651904936408</v>
+        <v>31.69651904932736</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.09976916049201</v>
+        <v>31.0997691605185</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>37.1788564667343</v>
+        <v>37.17885646671043</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>39.75564357275157</v>
+        <v>39.75564357277305</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.50533221598111</v>
+        <v>20.5053322160558</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.38905794889381</v>
+        <v>35.38905794889369</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>40.85258577936297</v>
+        <v>40.85258577938048</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>11.0460489090705</v>
+        <v>11.04604890907391</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>37.31363653825933</v>
+        <v>37.31363653818907</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.75278923852765</v>
+        <v>43.75278923858518</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>19.80356171968542</v>
+        <v>19.80356171973407</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>30.34570665110236</v>
+        <v>30.34570665114147</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.83024398636091</v>
+        <v>35.83024398632431</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.33135784224161</v>
+        <v>27.33135784231062</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.85895400554755</v>
+        <v>34.85895400555653</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>38.6516369073136</v>
+        <v>38.65163690735521</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.05508480661688</v>
+        <v>38.05508480663825</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>44.13428482894828</v>
+        <v>44.13428482890451</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>46.71108487451686</v>
+        <v>46.71108487452834</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.46049235335094</v>
+        <v>27.46049235327397</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.34447946788627</v>
+        <v>42.34447946793516</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>47.80811018986803</v>
+        <v>47.80811018988611</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-1.106066776179166</v>
+        <v>-1.106066776303766</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.15938998180995</v>
+        <v>25.159389981724</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.59743878604347</v>
+        <v>31.59743878597127</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.651952131944238</v>
+        <v>7.651952131991646</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>18.1920042450245</v>
+        <v>18.19200424506441</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>23.675891314579</v>
+        <v>23.6758913146288</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>15.17801520346363</v>
+        <v>15.17801520345271</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>22.70409079386063</v>
+        <v>22.70409079382595</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.49626804564222</v>
+        <v>26.4962680456055</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.89922480693785</v>
+        <v>25.8992248069574</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>31.97751939760591</v>
+        <v>31.97751939764491</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>34.55389433427028</v>
+        <v>34.55389433436157</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.3054568404048</v>
+        <v>15.30545684036955</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.18751345783884</v>
+        <v>30.18751345779132</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.65008503627148</v>
+        <v>35.65008503632264</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3.187596072597596</v>
+        <v>3.187596072526087</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.455593252284</v>
+        <v>29.45559325228366</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.89453336059528</v>
+        <v>35.89453336052297</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>11.94514941765332</v>
+        <v>11.94514941768345</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.48723761579383</v>
+        <v>22.48723761586011</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.97156132269474</v>
+        <v>27.97156132273453</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>19.47267841833256</v>
+        <v>19.47267841830311</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>27.00017021445528</v>
+        <v>27.00017021438786</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.79272161128919</v>
+        <v>30.79272161128851</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>30.19593060363108</v>
+        <v>30.19593060349125</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>36.27512578648343</v>
+        <v>36.27512578634939</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>38.85183488830778</v>
+        <v>38.85183488830971</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>19.6013159246534</v>
+        <v>19.60131592465477</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.48531264960529</v>
+        <v>34.48531264951798</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>39.94867809224131</v>
+        <v>39.94867809221289</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10.14254148368438</v>
+        <v>10.14254148361014</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.4104696333424</v>
+        <v>36.41046963329761</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>42.84947450824158</v>
+        <v>42.84947450814506</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>18.90018128698823</v>
+        <v>18.90018128702256</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.4425841538255</v>
+        <v>29.44258415379765</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34.92694899233429</v>
+        <v>34.92694899230689</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.42799800818879</v>
+        <v>26.42799800822892</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>33.95579122660392</v>
+        <v>33.95579122659562</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>37.74836643506698</v>
+        <v>37.74836643502492</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>37.15177320401487</v>
+        <v>37.15177320407865</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>43.23108110528601</v>
+        <v>43.23108110529976</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>45.80780314614258</v>
+        <v>45.80780314620306</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.55700301251049</v>
+        <v>26.55700301249207</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>41.44126112432711</v>
+        <v>41.44126112424424</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>46.90472945646415</v>
+        <v>46.9047294564463</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-1.024564438275963</v>
+        <v>-1.024564438338718</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.24089957600999</v>
+        <v>25.24089957598873</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.67893963521935</v>
+        <v>31.67893963522173</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7.733440359995637</v>
+        <v>7.733440360004277</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>18.27349717112979</v>
+        <v>18.27349717113661</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>23.75737878635759</v>
+        <v>23.75737878637623</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.25951630004139</v>
+        <v>15.25951629999183</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.78559347395848</v>
+        <v>22.78559347392904</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26.57776592279906</v>
+        <v>26.57776592272164</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.98074290660672</v>
+        <v>25.9807429065974</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.05903767802367</v>
+        <v>32.05903767802936</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.63540956395961</v>
+        <v>34.63540956394006</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15.38697650901342</v>
+        <v>15.38697650896396</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.26903226995061</v>
+        <v>30.2690322699663</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>35.73159582529904</v>
+        <v>35.73159582535577</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3.269216732405237</v>
+        <v>3.269216732406942</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.53722117053136</v>
+        <v>29.53722117054319</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.9761525326807</v>
+        <v>35.97615253266513</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>12.02675597401257</v>
+        <v>12.02675597400905</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>22.56884886966024</v>
+        <v>22.56884886965205</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.05316712240601</v>
+        <v>28.0531671224118</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.55429784421828</v>
+        <v>19.55429784419168</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.08179122476399</v>
+        <v>27.08179122476296</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30.87433781835288</v>
+        <v>30.87433781832003</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>30.27756703147353</v>
+        <v>30.27756703143158</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.35676239509603</v>
+        <v>36.35676239500008</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>38.9334684462513</v>
+        <v>38.9334684461691</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.68295391798635</v>
+        <v>19.68295391795202</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>34.56694978836701</v>
+        <v>34.56694978832051</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.03030720811323</v>
+        <v>40.03030720801262</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>10.2241827414703</v>
+        <v>10.22418274146279</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.49211815100141</v>
+        <v>36.49211815097026</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.93111427950093</v>
+        <v>42.93111427953345</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>18.98180844144626</v>
+        <v>18.98180844143659</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.52421600632639</v>
+        <v>29.52421600634026</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.0085753905892</v>
+        <v>35.00857539056294</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.50963803320341</v>
+        <v>26.50963803320432</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>34.03743283650208</v>
+        <v>34.03743283650651</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>37.83000324169329</v>
+        <v>37.83000324171046</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>37.23343022848557</v>
+        <v>37.2334302285406</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>43.31273831110927</v>
+        <v>43.31273831116066</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>45.88945730111782</v>
+        <v>45.88945730118671</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.63866160061165</v>
+        <v>26.63866160060517</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>41.52291885940581</v>
+        <v>41.52291885935624</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.98637916863179</v>
+        <v>46.9863791686028</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-5.249649793500641</v>
+        <v>-5.249649793508031</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.01540492408234</v>
+        <v>21.01540492410167</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.45355307977165</v>
+        <v>27.45355307980484</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3.508015261031385</v>
+        <v>3.508015261054123</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>14.04774023042937</v>
+        <v>14.04774023043528</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>19.53174400798575</v>
+        <v>19.53174400799348</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>11.03394800126447</v>
+        <v>11.03394800131222</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>18.559772436376</v>
+        <v>18.55977243635918</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22.35201693221374</v>
+        <v>22.35201693217281</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.75508111745811</v>
+        <v>21.7550811173417</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>27.8332410067242</v>
+        <v>27.83324100676445</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.40967024726221</v>
+        <v>30.40967024721719</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>11.16159907167643</v>
+        <v>11.16159907160026</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.04330599357335</v>
+        <v>26.0433059934508</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.50597450023535</v>
+        <v>31.50597450011734</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-0.9560226589768099</v>
+        <v>-0.9560226590134171</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.31157243782415</v>
+        <v>25.31157243784621</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.75061191386093</v>
+        <v>31.75061191384615</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>7.801176839954376</v>
+        <v>7.801176839986208</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>18.34293786642278</v>
+        <v>18.34293786644097</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>23.82737829932152</v>
+        <v>23.82737829936017</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>22.85581610685589</v>
+        <v>22.85581610693491</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.64843476066021</v>
+        <v>26.64843476074331</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.05175118105357</v>
+        <v>26.05175118099752</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.13081165099918</v>
+        <v>32.13081165093585</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>34.70757506868135</v>
+        <v>34.70757506863133</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>15.45742243442423</v>
+        <v>15.45742243440695</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.34106943039141</v>
+        <v>30.34106943039152</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.80453182158514</v>
+        <v>35.80453182156388</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>5.998878470117955</v>
+        <v>5.998878470148195</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.26640452572637</v>
+        <v>32.26640452576264</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>38.70550877394173</v>
+        <v>38.70550877396163</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>14.7561644390668</v>
+        <v>14.7561644390643</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.29824013431793</v>
+        <v>25.29824013430804</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.78272169781944</v>
+        <v>30.78272169778476</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>22.28385079940965</v>
+        <v>22.28385079948047</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.81139283876818</v>
+        <v>29.81139283883344</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>33.60403530664694</v>
+        <v>33.60403530663341</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>33.00754950642867</v>
+        <v>33.00754950649689</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>39.08672269458536</v>
+        <v>39.08672269471656</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>41.66349905108568</v>
+        <v>41.66349905118777</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>22.41306524150233</v>
+        <v>22.41306524147698</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.29697362530491</v>
+        <v>37.29697362524716</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.76053890687176</v>
+        <v>42.76053890679252</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>4.22000443063602</v>
+        <v>4.220004430682973</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>30.4852336034633</v>
+        <v>30.48523360345056</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>36.92336938401438</v>
+        <v>36.92336938401699</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>12.97808457886815</v>
+        <v>12.9780845788246</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>23.51799312899838</v>
+        <v>23.51799312901623</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.00200128176838</v>
+        <v>29.00200128172541</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.50420121398524</v>
+        <v>20.50420121396398</v>
       </c>
     </row>
     <row r="188">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.82242381641485</v>
+        <v>31.82242381636039</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.2253260233853</v>
+        <v>31.22532602333665</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.30356964402328</v>
+        <v>37.3035696440359</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>39.87999424481261</v>
+        <v>39.87999424482364</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20.63162643317643</v>
+        <v>20.6316264331122</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>35.5135626267335</v>
+        <v>35.51356262664824</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>40.97623815980903</v>
+        <v>40.97623815975207</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>8.514425348730395</v>
+        <v>8.51442534874904</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.78219490288227</v>
+        <v>34.78219490281292</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>41.22122199400478</v>
+        <v>41.2212219941171</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>17.27203997288613</v>
+        <v>17.27203997289488</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>27.81398457985169</v>
+        <v>27.81398457984987</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.29842938154097</v>
+        <v>33.29842938154995</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.32701149821803</v>
+        <v>32.32701149815664</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>36.11963546913402</v>
+        <v>36.1196354691737</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>35.5227899047499</v>
+        <v>35.52278990469817</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>41.60193410662878</v>
+        <v>41.60193410655579</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>44.17869288025263</v>
+        <v>44.1786928801868</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>24.92824360455874</v>
+        <v>24.92824360452066</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>39.81211987582485</v>
+        <v>39.81211987572833</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>45.27558928224612</v>
+        <v>45.27558928213448</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>15.46873262922001</v>
+        <v>15.46873262923797</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.73643312637391</v>
+        <v>41.73643312636914</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>48.17552499061439</v>
+        <v>48.17552499063554</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>24.22643370499263</v>
+        <v>24.226433705014</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.76869296543786</v>
+        <v>34.76869296545696</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>40.25317890126</v>
+        <v>40.25317890125977</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>31.75430395770983</v>
+        <v>31.75430395778976</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>39.2819943358284</v>
+        <v>39.28199433582647</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>43.07464212269342</v>
+        <v>43.07464212270774</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.47799435059009</v>
+        <v>42.47799435057509</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>48.55725126374323</v>
+        <v>48.5572512637322</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>51.1340229777624</v>
+        <v>51.13402297789393</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.88329254796126</v>
+        <v>31.88329254786974</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>46.76743018714937</v>
+        <v>46.76743018713823</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>52.23100248775533</v>
+        <v>52.23100248766791</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>3.35902563154529</v>
+        <v>3.359025631496518</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.62412969971392</v>
+        <v>29.62412969970653</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>36.06202240359634</v>
+        <v>36.062022403645</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>12.1171232641813</v>
+        <v>12.11712326416436</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.65705744475842</v>
+        <v>22.65705744477979</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.14084782976162</v>
+        <v>28.14084782976674</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>19.64311449970118</v>
+        <v>19.64311449973722</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>27.16912940345643</v>
+        <v>27.1691294035251</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.96122392279021</v>
+        <v>30.96122392275735</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>30.364130407074</v>
+        <v>30.36413040704853</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>36.44237204309029</v>
+        <v>36.44237204307767</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.01868931561312</v>
+        <v>39.0186893156196</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>19.7704428446098</v>
+        <v>19.77044284458047</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>34.65239601148544</v>
+        <v>34.6523960114361</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>40.11483455470379</v>
+        <v>40.11483455462967</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>7.653914151977045</v>
+        <v>7.653914152015357</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>33.92155859637266</v>
+        <v>33.92155859634686</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>40.36034257505348</v>
+        <v>40.36034257505166</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>16.41154627507084</v>
+        <v>16.41154627498888</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.95351650155684</v>
+        <v>26.95351650161551</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.43774350629739</v>
+        <v>32.43774350628273</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>23.93900343477769</v>
+        <v>23.93900343481134</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.46643452002824</v>
+        <v>31.46643452001949</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.25890316810994</v>
+        <v>35.25890316811119</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>34.66206187583468</v>
+        <v>34.66206187587299</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>40.74120408880167</v>
+        <v>40.74120408881792</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>43.31785551579405</v>
+        <v>43.31785551583589</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>24.06752760443923</v>
+        <v>24.06752760438443</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>38.95142084656861</v>
+        <v>38.9514208465885</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>44.41465322454751</v>
+        <v>44.41465322456013</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>14.60858073306376</v>
+        <v>14.60858073308138</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.36629930697533</v>
+        <v>23.3662993069842</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>33.90858418542648</v>
+        <v>33.90858418540215</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.39285232474963</v>
+        <v>39.39285232472439</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.89404417792131</v>
+        <v>30.8940441779162</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>38.42177666985133</v>
+        <v>38.42177666984246</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>42.21426913175507</v>
+        <v>42.21426913173813</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>41.61762561939524</v>
+        <v>41.61762561949688</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>47.69688054289502</v>
+        <v>47.69688054297119</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>50.2735449103465</v>
+        <v>50.27354491051089</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>31.02293584670489</v>
+        <v>31.02293584669034</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>45.90709045235114</v>
+        <v>45.9070904523948</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>51.37042572438251</v>
+        <v>51.37042572431317</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-2.619516994278985</v>
+        <v>-2.619516994302177</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>23.64547709478556</v>
+        <v>23.64547709476362</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>30.08351597913206</v>
+        <v>30.08351597912978</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>6.138245413314888</v>
+        <v>6.138245413341604</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>16.67800097994465</v>
+        <v>16.67800097995875</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>22.16191343168422</v>
+        <v>22.16191343168934</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>13.66419355301404</v>
+        <v>13.66419355300279</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.19005715542805</v>
+        <v>21.19005715546033</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>24.98223919390538</v>
+        <v>24.98223919393073</v>
       </c>
     </row>
     <row r="277">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>30.46339959808828</v>
+        <v>30.46339959816298</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>33.03978200269175</v>
+        <v>33.03978200272006</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>13.79172002248496</v>
+        <v>13.79172002247746</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.67342817496585</v>
+        <v>28.67342817493833</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.13600181986776</v>
+        <v>34.13600181984457</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>1.673707355055779</v>
+        <v>1.673707355072263</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.94124182798684</v>
+        <v>27.94124182801196</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.38017202219093</v>
+        <v>34.38017202223277</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>10.43100418979547</v>
+        <v>10.43100418984447</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>20.97279581786101</v>
+        <v>20.97279581788693</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.45714491730307</v>
+        <v>26.45714491732478</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>17.95841823034031</v>
+        <v>17.95841823029938</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.48569802170747</v>
+        <v>25.48569802170054</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.27825421269965</v>
+        <v>29.27825421274455</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.68151645340496</v>
+        <v>28.68151645347966</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>34.76056742636551</v>
+        <v>34.76056742644725</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>37.33728400288264</v>
+        <v>37.33728400294994</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>18.08714057559045</v>
+        <v>18.08714057566298</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>32.97078880581891</v>
+        <v>32.9707888058188</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.43415632725082</v>
+        <v>38.4341563272216</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>8.628486741989075</v>
+        <v>8.628486742006697</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.89595219022469</v>
+        <v>34.89595219021344</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>41.33494714694034</v>
+        <v>41.33494714696808</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>17.38587003882064</v>
+        <v>17.38587003881132</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.92797634101388</v>
+        <v>27.92797634104776</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>33.41236656625647</v>
+        <v>33.41236656625306</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>24.91357179264552</v>
+        <v>24.91357179270589</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>32.44115300828905</v>
+        <v>32.44115300831656</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>36.23373300881046</v>
+        <v>36.23373300881535</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>35.63719302498195</v>
+        <v>35.63719302495626</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>41.71635671836331</v>
+        <v>41.71635671840674</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>44.29308623156696</v>
+        <v>44.29308623165132</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.04266163097865</v>
+        <v>25.04266163099321</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>39.92657125647445</v>
+        <v>39.92657125644534</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>45.39004166065381</v>
+        <v>45.3900416606172</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1.267062990106336</v>
+        <v>1.267062990154084</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>27.53249021549054</v>
+        <v>27.53249021556011</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>33.97065988654496</v>
+        <v>33.9706598865411</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>10.02510945563669</v>
+        <v>10.02510945562134</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>20.56507628390061</v>
+        <v>20.5650762838715</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>26.04910524386848</v>
+        <v>26.04910524387905</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>17.55123062598947</v>
+        <v>17.55123062602938</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>25.07724161954665</v>
+        <v>25.07724161962566</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.86950580893453</v>
+        <v>28.86950580891066</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.27245424834659</v>
+        <v>28.27245424836637</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>34.35073437915564</v>
+        <v>34.35073437918645</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>36.92717062216734</v>
+        <v>36.92717062216563</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.67871959976427</v>
+        <v>17.67871959977576</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.56073760150052</v>
+        <v>32.56073760151075</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>38.02343250295387</v>
+        <v>38.02343250301105</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>5.561286079800578</v>
+        <v>5.561286079805694</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.82925370963737</v>
+        <v>31.82925370965215</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.26831469847779</v>
+        <v>38.26831469849951</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>14.31886700613238</v>
+        <v>14.31886700620946</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>24.86086990965513</v>
+        <v>24.86086990961523</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.3453355208192</v>
+        <v>30.34533552081249</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>21.84645410645741</v>
+        <v>21.84645410649368</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.37388129938408</v>
+        <v>29.37388129932371</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>33.16651964320231</v>
+        <v>33.16651964314569</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>32.56972031470643</v>
+        <v>32.56972031470723</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>38.6489010348868</v>
+        <v>38.64890103492023</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>41.22567145269129</v>
+        <v>41.22567145275234</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>21.97513895131685</v>
+        <v>21.97513895136028</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>36.85909704828025</v>
+        <v>36.85909704829105</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>42.32258582910269</v>
+        <v>42.32258582910781</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>12.51588782262119</v>
+        <v>12.51588782258902</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>38.78378640107955</v>
+        <v>38.78378640112764</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>45.22291216315811</v>
+        <v>45.22291216319381</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>21.27355520690439</v>
+        <v>21.27355520697953</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>31.81587277075407</v>
+        <v>31.81587277076055</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>37.30037951558124</v>
+        <v>37.30037951567037</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.80143001449146</v>
+        <v>28.80143001445689</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>36.32915862040458</v>
+        <v>36.32915862035945</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>40.12182077957293</v>
+        <v>40.12182077953439</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>39.52521923980184</v>
+        <v>39.52521923979877</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>45.6045126741398</v>
+        <v>45.60451267414048</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>48.18129603235984</v>
+        <v>48.18129603236677</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.9304823678148</v>
+        <v>28.93048236780684</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>43.81470184050526</v>
+        <v>43.81470184051652</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.27829351540849</v>
+        <v>49.27829351544408</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>7.530268783776858</v>
+        <v>7.530268783707623</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>33.79570616002313</v>
+        <v>33.7957061600744</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>40.23369580648072</v>
+        <v>40.23369580650665</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>16.28861450106301</v>
+        <v>16.28861450111371</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.82873545134263</v>
+        <v>26.82873545131387</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>32.31261222380571</v>
+        <v>32.31261222380083</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.81479117546534</v>
+        <v>23.81479117549729</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>31.3409450602317</v>
+        <v>31.34094506021021</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>35.1331047835577</v>
+        <v>35.1331047835677</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>34.53592823028286</v>
+        <v>34.53592823027752</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>40.61425381573478</v>
+        <v>40.6142538157324</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>43.19061115371407</v>
+        <v>43.19061115367565</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>23.94202816172496</v>
+        <v>23.94202816174952</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>38.82420989899008</v>
+        <v>38.82420989893812</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>44.28674019098712</v>
+        <v>44.28674019098678</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>11.82431511124018</v>
+        <v>11.824315111149</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>38.09229288755994</v>
+        <v>38.09229288754561</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>44.53117381951101</v>
+        <v>44.53117381951147</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.58219527784062</v>
+        <v>20.58219527798944</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>31.12435229982922</v>
+        <v>31.12435229987436</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>36.60866569777549</v>
+        <v>36.6086656978719</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.10983787778677</v>
+        <v>28.10983787784441</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>35.63740796190091</v>
+        <v>35.63740796187328</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>39.42994181921374</v>
+        <v>39.42994181916963</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>38.83301750063929</v>
+        <v>38.83301750065225</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>44.9122436716023</v>
+        <v>44.91224367160923</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>47.4889351690944</v>
+        <v>47.48893516911589</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.2382707281536</v>
+        <v>28.2382707282001</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>43.1223925579482</v>
+        <v>43.12239255797981</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>48.58571669677501</v>
+        <v>48.58571669684106</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>18.77860129084926</v>
+        <v>18.7786012907657</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>45.04651002018902</v>
+        <v>45.04651002023745</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>51.48545571617539</v>
+        <v>51.48545571613322</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.536567895417</v>
+        <v>27.5365678954278</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.07903957148191</v>
+        <v>38.07903957146463</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.56339409950481</v>
+        <v>43.56339409952197</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>35.06449819872357</v>
+        <v>35.06449819875279</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.59236969181897</v>
+        <v>42.59236969187309</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>46.38492735987715</v>
+        <v>46.38492735988795</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>45.78820083185057</v>
+        <v>45.78820083188025</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>51.8675397139247</v>
+        <v>51.8675397138848</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>54.44424415020528</v>
+        <v>54.44424415021642</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>35.19329856455458</v>
+        <v>35.19329856456834</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>50.07768176026859</v>
+        <v>50.07768176024256</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>55.54110878827798</v>
+        <v>55.54110878832778</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-5.795218121288219</v>
+        <v>-5.795218121303453</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>20.46929270032141</v>
+        <v>20.46929270028947</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.90723702142945</v>
+        <v>26.90723702136772</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>2.962168863474556</v>
+        <v>2.962168863471373</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>13.50178263002696</v>
+        <v>13.50178263002742</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>18.9855504053999</v>
+        <v>18.98555040544765</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>10.48797709384455</v>
+        <v>10.48797709384841</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.0137052425644</v>
+        <v>18.01370524253688</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>21.80580923851157</v>
+        <v>21.80580923850452</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.2088936310029</v>
+        <v>21.20889363100416</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.28693060271375</v>
+        <v>27.2869306027183</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.86326493692597</v>
+        <v>29.86326493693563</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>10.61559796726094</v>
+        <v>10.61559796730959</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.49697807390752</v>
+        <v>25.49697807389286</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>30.95947234966347</v>
+        <v>30.95947234962538</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-1.502362980947925</v>
+        <v>-1.502362980986124</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>24.76468818921925</v>
+        <v>24.76468818913899</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>31.20352381923071</v>
+        <v>31.20352381923923</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>7.254558442004093</v>
+        <v>7.254558441983061</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>17.79620823589157</v>
+        <v>17.79620823585973</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.28041266214897</v>
+        <v>23.28041266207496</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>14.78183254130662</v>
+        <v>14.78183254133107</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.30897685476854</v>
+        <v>22.30897685479037</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.10145500770345</v>
+        <v>26.10145500765536</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.50479161533501</v>
+        <v>25.50479161536991</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.58372915220881</v>
+        <v>31.583729152222</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>34.16039765601651</v>
+        <v>34.16039765600435</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>14.91064926365543</v>
+        <v>14.91064926365668</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.79396941926727</v>
+        <v>29.79396941928784</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>35.25725757126024</v>
+        <v>35.25725757123432</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>5.452522753885926</v>
+        <v>5.452522753906617</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>31.7195049104129</v>
+        <v>31.71950491046224</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>38.15840530591645</v>
+        <v>38.15840530593987</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>14.20953064616178</v>
+        <v>14.20953064608993</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.75149511051022</v>
+        <v>24.75149511048305</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.23574066501162</v>
+        <v>30.2357406649417</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>21.7370924582987</v>
+        <v>21.73709245830507</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.26453819546525</v>
+        <v>29.26453819552436</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.0570401598133</v>
+        <v>33.05704015988651</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>32.46057452902544</v>
+        <v>32.46057452898087</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>38.5396247876909</v>
+        <v>38.53962478769635</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>41.11630622880948</v>
+        <v>41.1163062287922</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.86627665637597</v>
+        <v>21.86627665636813</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>36.7498582130526</v>
+        <v>36.74985821305624</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>42.21324924839159</v>
+        <v>42.21324924833714</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-1.772141964412487</v>
+        <v>-1.772141964422946</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.49283924050694</v>
+        <v>24.4928392405482</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.93074387633412</v>
+        <v>30.9307438763473</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>6.985638559060515</v>
+        <v>6.98563855921115</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>17.52549817254718</v>
+        <v>17.52549817259527</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.00923113784181</v>
+        <v>23.00923113784613</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>14.5115527533466</v>
+        <v>14.51155275334217</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.03748184794021</v>
+        <v>22.03748184791088</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.82955398119115</v>
+        <v>25.82955398120263</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.23252526198932</v>
+        <v>25.23252526201365</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>31.31071409035091</v>
+        <v>31.31071409039513</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>33.88702576281109</v>
+        <v>33.8870257628153</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>14.63894853918377</v>
+        <v>14.63894853914637</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.52073364716732</v>
+        <v>29.52073364712662</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>34.98316481559259</v>
+        <v>34.98316481556337</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>2.52197258849689</v>
+        <v>2.521972588469946</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.78949417368328</v>
+        <v>28.78949417371261</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.22829009947934</v>
+        <v>35.22829009944967</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>11.27928757688066</v>
+        <v>11.27928757701526</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>21.82118323557351</v>
+        <v>21.82118323558772</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.30535283182261</v>
+        <v>27.30535283184387</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>18.80666768087444</v>
+        <v>18.80666768089524</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.3340129546646</v>
+        <v>26.33401295460196</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.12645922774133</v>
+        <v>30.12645922772996</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.52968272593345</v>
+        <v>29.52968272591844</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>35.60877213052599</v>
+        <v>35.60877213054088</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>38.18541796211188</v>
+        <v>38.18541796210381</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>18.93525929603599</v>
+        <v>18.93525929602496</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.81898447948031</v>
+        <v>33.81898447945484</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>39.28220949794665</v>
+        <v>39.28220949794699</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>9.476985176676902</v>
+        <v>9.476985176633132</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.74443773445459</v>
+        <v>35.74443773445766</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>42.18329842980135</v>
+        <v>42.18329842981522</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>18.23438662705238</v>
+        <v>18.23438662713322</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.77659694751518</v>
+        <v>28.77659694749006</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>34.26080767833689</v>
+        <v>34.26080767834303</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.7620544527878</v>
+        <v>25.76205445285272</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>33.28970114273993</v>
+        <v>33.28970114272833</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>37.08217122993874</v>
+        <v>37.0821712299027</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>36.48559249645329</v>
+        <v>36.48559249648933</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>42.56479461746282</v>
+        <v>42.56479461750568</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>45.14145338911764</v>
+        <v>45.141453389197</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.89101355421148</v>
+        <v>25.89101355423263</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>40.77500011956697</v>
+        <v>40.7750001195996</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>46.23832802991801</v>
+        <v>46.23832802991312</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-4.292384230823661</v>
+        <v>-4.292384230871864</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>21.97242665401852</v>
+        <v>21.97242665399555</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.41034025370167</v>
+        <v>28.41034025361311</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>4.465210735538601</v>
+        <v>4.465210735556791</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>15.00493384371559</v>
+        <v>15.00493384366557</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.48869459789868</v>
+        <v>20.4886945979337</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>11.99108123896717</v>
+        <v>11.99108123894147</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.51690644078932</v>
+        <v>19.51690644079501</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.30899661782682</v>
+        <v>23.30899661774019</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.71204868489614</v>
+        <v>22.71204868489182</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.79016021633781</v>
+        <v>28.79016021630825</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.36648171439667</v>
+        <v>31.36648171435801</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>12.11862761916158</v>
+        <v>12.11862761907893</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>27.00021120002104</v>
+        <v>27.0002112000249</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.46266055971891</v>
+        <v>32.46266055968651</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>0.0009135999451181931</v>
+        <v>0.0009135999279514806</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.268264862007</v>
+        <v>26.26826486199245</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>32.70706975638159</v>
+        <v>32.70706975626779</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>8.758042996108241</v>
+        <v>8.758042996177249</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>19.29980215142454</v>
+        <v>19.29980215144273</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>24.78399954209344</v>
+        <v>24.78399954212993</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>16.28537939577215</v>
+        <v>16.28537939575464</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>23.81262077637431</v>
+        <v>23.81262077639716</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>27.60508509811249</v>
+        <v>27.6050850981217</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.00838937844871</v>
+        <v>27.00838937846701</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>33.0874014840753</v>
+        <v>33.08740148409599</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>35.66405714503314</v>
+        <v>35.66405714501916</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>16.41412161211398</v>
+        <v>16.41412161199962</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.29764526585192</v>
+        <v>31.29764526586591</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.76088848522743</v>
+        <v>36.76088848523095</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>6.95601371344075</v>
+        <v>6.956013713401983</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>33.22329596251056</v>
+        <v>33.22329596253034</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>39.66216561975425</v>
+        <v>39.66216561968751</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>15.71322957296983</v>
+        <v>15.71322957302258</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>26.25530340215918</v>
+        <v>26.25530340219431</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.73954192032503</v>
+        <v>31.739541920402</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>23.2408536966714</v>
+        <v>23.24085369674598</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.76839650320396</v>
+        <v>30.76839650329945</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.5608846344217</v>
+        <v>34.56088463444716</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>33.96438667359125</v>
+        <v>33.9643866736548</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>40.04351150132122</v>
+        <v>40.04351150130394</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>42.62018009917556</v>
+        <v>42.62018009919977</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>23.36996338296778</v>
+        <v>23.36996338296346</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>38.25374843705758</v>
+        <v>38.25374843715569</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.71709453952694</v>
+        <v>43.71709453959777</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-8.196081227195652</v>
+        <v>-8.19608122717155</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>18.06810968364668</v>
+        <v>18.06810968367192</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>24.5058823804183</v>
+        <v>24.50588238042625</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>0.5611198330597453</v>
+        <v>0.561119833099422</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>11.10056349948938</v>
+        <v>11.10056349955213</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.58417336077575</v>
+        <v>16.58417336077768</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>8.086753300279309</v>
+        <v>8.086753300261119</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>15.61236656364353</v>
+        <v>15.6123665636798</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.40435516614154</v>
+        <v>19.40435516614961</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.80747559442481</v>
+        <v>18.80747559447438</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>24.88543691847762</v>
+        <v>24.88543691851832</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.46169966926236</v>
+        <v>27.4616996692594</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>8.214358544548457</v>
+        <v>8.21435854456983</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.09554649133672</v>
+        <v>23.09554649140288</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.55786748680013</v>
+        <v>28.55786748682128</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-3.902617265601595</v>
+        <v>-3.902617265619444</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>22.36411397305293</v>
+        <v>22.36411397296778</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.80277795248336</v>
+        <v>28.8027779524704</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>4.854118243129886</v>
+        <v>4.85411824318366</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>15.39559791235324</v>
+        <v>15.39559791237461</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.87964440654109</v>
+        <v>20.87964440656553</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>12.38121757944104</v>
+        <v>12.38121757940113</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.90824699129227</v>
+        <v>19.90824699128306</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.70060973559411</v>
+        <v>23.70060973557387</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.10398236046789</v>
+        <v>23.10398236049677</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.18284424087816</v>
+        <v>29.18284424088567</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.75944114984786</v>
+        <v>31.75944114985309</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.51001861881586</v>
+        <v>12.5100186188037</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>27.39314659983851</v>
+        <v>27.39314659986603</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>32.85626144468749</v>
+        <v>32.85626144465964</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.052680011880437</v>
+        <v>3.052680011830187</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.3193422448865</v>
+        <v>29.31934224490673</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.75807098964928</v>
+        <v>35.75807098965633</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>11.80950199297846</v>
+        <v>11.80950199305725</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.35129633239971</v>
+        <v>22.35129633235753</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.83538395670147</v>
+        <v>27.83538395664349</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>19.33688905660271</v>
+        <v>19.336889056596</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.86421989050602</v>
+        <v>26.86421989046134</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.65660644643451</v>
+        <v>30.65660644635879</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.060176817829</v>
+        <v>30.06017681786333</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.13915141953605</v>
+        <v>36.13915141955833</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>38.71576126641394</v>
+        <v>38.71576126645077</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>19.46605754736428</v>
+        <v>19.46605754740237</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>34.34944692916319</v>
+        <v>34.34944692919161</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>39.81266465861783</v>
+        <v>39.81266465862022</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-2.325027084597952</v>
+        <v>-2.325027084673895</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.94033087942152</v>
+        <v>23.94033087942197</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.37856518212349</v>
+        <v>30.37856518214691</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>6.432863427023829</v>
+        <v>6.432863427095793</v>
       </c>
     </row>
     <row r="587">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.45682163314465</v>
+        <v>22.45682163311521</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.95893742967534</v>
+        <v>13.95893742961338</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>21.48487207570342</v>
+        <v>21.48487207567693</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.27717406570109</v>
+        <v>25.27717406560991</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.68019059626571</v>
+        <v>24.68019059629641</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>30.75842556350691</v>
+        <v>30.75842556355773</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>33.33489108659823</v>
+        <v>33.33489108666747</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>14.08653212214294</v>
+        <v>14.08653212204528</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.96843333469682</v>
+        <v>28.96843333469978</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.43118854464562</v>
+        <v>34.43118854467734</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1.968268937476335</v>
+        <v>1.968268937496003</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.23616730459132</v>
+        <v>28.23616730460791</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.6752929392092</v>
+        <v>34.6752929392491</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>10.72569387749597</v>
+        <v>10.7256938775112</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>21.26760599497747</v>
+        <v>21.26760599498122</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.75212482408896</v>
+        <v>26.75212482412591</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>18.25323379493845</v>
+        <v>18.25323379507294</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.78058464061796</v>
+        <v>25.78058464059579</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.57326079435556</v>
+        <v>29.57326079431349</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.97652956665653</v>
+        <v>28.97652956666824</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.05566512241596</v>
+        <v>35.05566512238754</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>37.63246482799074</v>
+        <v>37.63246482793538</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>18.38202438843852</v>
+        <v>18.38202438850196</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>33.26586569335647</v>
+        <v>33.26586569336909</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>38.72941480015849</v>
+        <v>38.72941480015997</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>8.922968242779501</v>
+        <v>8.922968242712766</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.19079756740727</v>
+        <v>35.19079756745536</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>41.62998797263667</v>
+        <v>41.62998797262144</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>17.68047964588554</v>
+        <v>17.68047964590248</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.22270643422591</v>
+        <v>28.22270643422693</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>33.70726639379727</v>
+        <v>33.70726639384274</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.20830727314573</v>
+        <v>25.2083072732003</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>32.73595954012994</v>
+        <v>32.73595954013938</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.52865950759694</v>
+        <v>36.52865950762389</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.93212606597972</v>
+        <v>35.93212606605304</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>42.01137434086802</v>
+        <v>42.011374340936</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>44.58818698488112</v>
+        <v>44.58818698489715</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.33746537297058</v>
+        <v>25.337465372999</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>40.22156806687239</v>
+        <v>40.22156806686182</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>45.68522006382982</v>
+        <v>45.68522006384357</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-3.373587056955973</v>
+        <v>-3.373587056966091</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.89113585673628</v>
+        <v>22.89113585673526</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.32906260989789</v>
+        <v>29.32906260999372</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>5.384024009453054</v>
+        <v>5.38402400942827</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>15.92375452070148</v>
+        <v>15.92375452065759</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.40750517172414</v>
+        <v>21.40750517169685</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.90988419302668</v>
+        <v>12.90988419298303</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>20.43570609214104</v>
+        <v>20.43570609209318</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.22779887058315</v>
+        <v>24.22779887056781</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>23.63081864998939</v>
+        <v>23.63081864995051</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.7089230546059</v>
+        <v>29.70892305452132</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.28524579539275</v>
+        <v>32.28524579537616</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.03739240434349</v>
+        <v>13.03739240430017</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.91895304016206</v>
+        <v>27.91895304015842</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>33.38141922022992</v>
+        <v>33.38141922021184</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>0.9195889708088707</v>
+        <v>0.9195889707788574</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.18685224593291</v>
+        <v>27.18685224595565</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>33.62567029510642</v>
+        <v>33.62567029506003</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>9.676734477402686</v>
+        <v>9.676734477363237</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.21850102208752</v>
+        <v>20.21850102205091</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.70268831198784</v>
+        <v>25.70268831192406</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>17.20406054505262</v>
+        <v>17.20406054504648</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.7312986132412</v>
+        <v>24.73129861317549</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.52376553825153</v>
+        <v>28.52376553821129</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.9270375363955</v>
+        <v>27.92703753635139</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>34.00604251030386</v>
+        <v>34.00604251027305</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.5826994141626</v>
+        <v>36.58269941411861</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>17.33276459700771</v>
+        <v>17.33276459702305</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.21626529201414</v>
+        <v>32.21626529197776</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>37.679525332561</v>
+        <v>37.67952533254019</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>7.874496275196446</v>
+        <v>7.874496275202812</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>34.14169053163066</v>
+        <v>34.14169053156472</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.58057334673735</v>
+        <v>40.58057334666437</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>16.63172824426469</v>
+        <v>16.63172824428049</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>27.17380945602239</v>
+        <v>27.17380945605968</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>32.65803787634961</v>
+        <v>32.65803787640293</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>24.15934202889313</v>
+        <v>24.15934202896566</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>31.68688151793974</v>
+        <v>31.68688151794121</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>35.47937225465618</v>
+        <v>35.47937225466858</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.88284201708124</v>
+        <v>34.88284201712399</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.96195971071818</v>
+        <v>40.96195971070419</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>43.53862955281447</v>
+        <v>43.53862955276502</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>24.28841356024376</v>
+        <v>24.28841356021284</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>39.17217564880666</v>
+        <v>39.17217564879392</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>44.63553857528261</v>
+        <v>44.63553857532035</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>7.542769563894847</v>
+        <v>7.542769563865175</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>33.80844280580645</v>
+        <v>33.80844280581179</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>40.24667169495676</v>
+        <v>40.24667169494926</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>16.30115931056336</v>
+        <v>16.30115931057382</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.84128186727279</v>
+        <v>26.84128186722709</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>32.3253771296841</v>
+        <v>32.32537712965568</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>23.82744820031955</v>
+        <v>23.8274482002552</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>31.35358154162581</v>
+        <v>31.35358154161831</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>35.1458943395758</v>
+        <v>35.14589433954283</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>34.54873823285804</v>
+        <v>34.54873823288214</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>40.62709335552704</v>
+        <v>40.6270933554503</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>43.20355741801158</v>
+        <v>43.2035574180599</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>23.95480125714964</v>
+        <v>23.95480125707153</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.83702725411506</v>
+        <v>38.83702725409164</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>44.29979258999417</v>
+        <v>44.29979258995768</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>11.83668827939327</v>
+        <v>11.83668827943533</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>38.10490193548439</v>
+        <v>38.10490193552953</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>44.54402214524991</v>
+        <v>44.5440221452764</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>20.59461247263566</v>
+        <v>20.59461247263179</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>31.13677111509518</v>
+        <v>31.13677111512429</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.62130303045585</v>
+        <v>36.62130303048041</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.1223672938185</v>
+        <v>28.12236729381838</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>35.64991684231443</v>
+        <v>35.64991684229965</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>39.44260379567042</v>
+        <v>39.4426037956578</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>38.84569993027462</v>
+        <v>38.84569993022323</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>44.9249556457733</v>
+        <v>44.92495564577648</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>47.50175388503878</v>
+        <v>47.50175388500286</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.25091624099643</v>
+        <v>28.25091624093606</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>43.13508234119404</v>
+        <v>43.1350823411647</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>48.59864156067287</v>
+        <v>48.5986415606291</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>18.79082777708645</v>
+        <v>18.79082777698231</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>45.05897237332708</v>
+        <v>45.05897237328047</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>51.49815735411453</v>
+        <v>51.49815735407405</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>27.54883841121527</v>
+        <v>27.54883841130735</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>38.09131170929463</v>
+        <v>38.09131170933908</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.57588475814957</v>
+        <v>43.57588475819993</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.07688092966855</v>
+        <v>35.07688092975199</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>42.60473188759276</v>
+        <v>42.60473188757798</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>46.39744265596759</v>
+        <v>46.39744265602467</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>45.80073659016698</v>
+        <v>45.80073659020336</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>51.88010501728313</v>
+        <v>51.88010501737078</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>54.4569161965059</v>
+        <v>54.45691619655672</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>35.20579740264729</v>
+        <v>35.20579740258101</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>50.09022487055658</v>
+        <v>50.09022487052725</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.55388698403264</v>
+        <v>55.55388698402571</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>1.731137824545424</v>
+        <v>1.731137824513933</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>27.99597374517877</v>
+        <v>27.99597374520742</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>34.43407334674434</v>
+        <v>34.43407334672513</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>10.4889875359551</v>
+        <v>10.4889875359842</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.02868318627865</v>
+        <v>21.02868318624602</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.51266240163094</v>
+        <v>26.51266240161332</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>18.01497256365364</v>
+        <v>18.01497256371537</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.54078691710451</v>
+        <v>25.54078691703846</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.33301535680918</v>
+        <v>29.33301535673983</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.73598009224524</v>
+        <v>28.73598009226343</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>34.81411278430294</v>
+        <v>34.81411278438024</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>37.39052438153412</v>
+        <v>37.39052438151343</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>18.14248529741796</v>
+        <v>18.14248529744865</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>33.02414604747291</v>
+        <v>33.0241460474886</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>38.48678732750254</v>
+        <v>38.48678732754188</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>6.024927606974455</v>
+        <v>6.024927606977524</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.2923038714129</v>
+        <v>32.29230387142029</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.73129477849447</v>
+        <v>38.73129477847219</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>14.7823117784183</v>
+        <v>14.78231177846684</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.32404345766785</v>
+        <v>25.32404345764989</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.80845932225354</v>
+        <v>30.80845932221636</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>22.30976269702164</v>
+        <v>22.3097626971036</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.83699321687054</v>
+        <v>29.83699321689964</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.62959580808221</v>
+        <v>33.62959580803071</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>33.03281277834201</v>
+        <v>33.03281277833803</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>39.11184603829115</v>
+        <v>39.11184603827466</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>41.68859180838926</v>
+        <v>41.68859180834197</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.4384712928492</v>
+        <v>22.43847129291207</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.32207209051823</v>
+        <v>37.32207209049265</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>42.78550724258291</v>
+        <v>42.78550724256267</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>12.97919530737333</v>
+        <v>12.97919530742767</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>39.2465025188814</v>
+        <v>39.24650251884343</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>45.68555819738815</v>
+        <v>45.68555819734608</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>21.73666593102432</v>
+        <v>21.73666593108491</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>32.27871226587426</v>
+        <v>32.27871226585653</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>37.76316926205122</v>
+        <v>37.76316926199381</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.26440454587161</v>
+        <v>29.26440454590947</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>36.79193647304457</v>
+        <v>36.79193647307459</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>40.58456287883921</v>
+        <v>40.58456287879908</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>39.98797763737564</v>
+        <v>39.98797763744373</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>46.06712360995714</v>
+        <v>46.06712360992394</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>48.64388231948912</v>
+        <v>48.6438823194383</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.39348064797984</v>
+        <v>29.3934806479936</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>44.2773428169093</v>
+        <v>44.27734281694011</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>49.74088086023055</v>
+        <v>49.74088086020554</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-0.5617446272242042</v>
+        <v>-0.5617446272257958</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.70387957611005</v>
+        <v>25.70387957611858</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>32.14207107401607</v>
+        <v>32.14207107401562</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>8.196284293158595</v>
+        <v>8.19628429322999</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>18.73637277183313</v>
+        <v>18.73637277181266</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.22037757645618</v>
+        <v>24.22037757650552</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>15.72245175678681</v>
+        <v>15.7224517566879</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>23.24853615083684</v>
+        <v>23.24853615082206</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>27.04079783602871</v>
+        <v>27.04079783598665</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.44375912142906</v>
+        <v>26.44375912148795</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.52208032816343</v>
+        <v>32.52208032820788</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>35.09851542341089</v>
+        <v>35.09851542343965</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>15.84993682977897</v>
+        <v>15.84993682981228</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.73204291049789</v>
+        <v>30.73204291054314</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>36.1947497987433</v>
+        <v>36.19474979880117</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>3.731822479591795</v>
+        <v>3.731822479627606</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.99998711774394</v>
+        <v>29.99998711782795</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>36.43906994246827</v>
+        <v>36.43906994251169</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>12.48938583595752</v>
+        <v>12.48938583597196</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>23.03151041020957</v>
+        <v>23.03151041022299</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.51595187043442</v>
+        <v>28.51595187043158</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>20.0170192329039</v>
+        <v>20.01701923295063</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.54451983961478</v>
+        <v>27.54451983963035</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.3371556842266</v>
+        <v>31.3371556842125</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.74036920384769</v>
+        <v>30.74036920386258</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.81959100782915</v>
+        <v>36.81959100795466</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>39.39636027901217</v>
+        <v>39.3963602791071</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>20.14570019355078</v>
+        <v>20.14570019347404</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.02974639057952</v>
+        <v>35.02974639060487</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>40.49324716692051</v>
+        <v>40.4932471668332</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>10.68664251360512</v>
+        <v>10.68664251359716</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.95473811733397</v>
+        <v>36.95473811736478</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>43.39388571220381</v>
+        <v>43.39388571221643</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>19.44429233159762</v>
+        <v>19.44429233157136</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.98673157630484</v>
+        <v>29.98673157626403</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.47121416957843</v>
+        <v>35.47121416958457</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>26.9722134439866</v>
+        <v>26.97221344394101</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>34.5000154747086</v>
+        <v>34.50001547472475</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.2926751333171</v>
+        <v>38.29267513330767</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>37.69608643488839</v>
+        <v>37.69608643488657</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>43.77542095850588</v>
+        <v>43.7754209585468</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>46.35220316935049</v>
+        <v>46.35220316937823</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.10126191014937</v>
+        <v>27.10126191019348</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>41.9855694982122</v>
+        <v>41.98556949827768</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>47.44917316635046</v>
+        <v>47.44917316626179</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-3.043736286405267</v>
+        <v>-3.043736286373207</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>23.22099813393781</v>
+        <v>23.22099813398829</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.65909415734886</v>
+        <v>29.65909415742923</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>5.713908609375761</v>
+        <v>5.71390860942169</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>16.25353039211181</v>
+        <v>16.25353039210681</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.73749351777012</v>
+        <v>21.73749351779785</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>13.23979980411029</v>
+        <v>13.23979980413246</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>20.76555328641909</v>
+        <v>20.76555328640761</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.55777414318952</v>
+        <v>24.55777414315291</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.9608126067573</v>
+        <v>23.9608126068794</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.03889992914098</v>
+        <v>30.03889992923625</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>32.61530913006679</v>
+        <v>32.61530913012909</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>13.36740625105783</v>
+        <v>13.3674062510659</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.24893952975951</v>
+        <v>28.24893952978634</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>33.71158039345475</v>
+        <v>33.7115803934701</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>1.249501208440204</v>
+        <v>1.249501208410987</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.51677597906057</v>
+        <v>27.51677597903908</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>33.95576332025637</v>
+        <v>33.95576332024227</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>10.00668054788768</v>
+        <v>10.00668054797704</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>20.54833836755385</v>
+        <v>20.54833836759</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.0327381508129</v>
+        <v>26.03273815087088</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>17.53403762546308</v>
+        <v>17.53403762544466</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.06120727912313</v>
+        <v>25.06120727913757</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.85380229562206</v>
+        <v>28.85380229559284</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.25709299166082</v>
+        <v>28.25709299167788</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>34.33608088330236</v>
+        <v>34.33608088330213</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.91282426129696</v>
+        <v>36.91282426131356</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>17.66283994734583</v>
+        <v>17.66283994734958</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.54631327870588</v>
+        <v>32.54631327876363</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>38.00974802657883</v>
+        <v>38.00974802661874</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>8.204033550569118</v>
+        <v>8.204033550591287</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>34.47123928409808</v>
+        <v>34.47123928406829</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>40.91029139385584</v>
+        <v>40.91029139379729</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>16.96129935143317</v>
+        <v>16.96129935146227</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>27.50327183821086</v>
+        <v>27.50327183817619</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>32.98771274931202</v>
+        <v>32.98771274927985</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>24.48894413176712</v>
+        <v>24.48894413176462</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>32.01641520278331</v>
+        <v>32.01641520278046</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>35.80903403173481</v>
+        <v>35.80903403170196</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.2125225072911</v>
+        <v>35.2125225073235</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>41.29162311750615</v>
+        <v>41.29162311757015</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>43.86837943295249</v>
+        <v>43.86837943294476</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>24.61811395164879</v>
+        <v>24.61811395168483</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>39.50184867135651</v>
+        <v>39.50184867135458</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>44.96538630521802</v>
+        <v>44.96538630522893</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>0.09408161333514542</v>
+        <v>0.0940816133119533</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>26.3587962788204</v>
+        <v>26.35879627880153</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>32.7968975042243</v>
+        <v>32.79689750424409</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>8.851837082622563</v>
+        <v>8.851837082569244</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>19.39146140788948</v>
+        <v>19.39146140786015</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>24.87544227799019</v>
+        <v>24.87544227794642</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>16.3777703889048</v>
+        <v>16.3777703889903</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>23.90352880870664</v>
+        <v>23.90352880874984</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>27.69575822707422</v>
+        <v>27.69575822713038</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.09876048530104</v>
+        <v>27.09876048532935</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>33.17685513069777</v>
+        <v>33.17685513074507</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>35.75326956531983</v>
+        <v>35.75326956538906</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>16.50533952104949</v>
+        <v>16.50533952109178</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.38690153426868</v>
+        <v>31.38690153433246</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.84954928688425</v>
+        <v>36.8495492869328</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>4.387567392705517</v>
+        <v>4.387567392692898</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>30.6548223921532</v>
+        <v>30.65482239209136</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>37.09381492625464</v>
+        <v>37.09381492623747</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>13.14485731588847</v>
+        <v>13.1448573159427</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.68651766362568</v>
+        <v>23.68651766359839</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.17093518599374</v>
+        <v>29.17093518600249</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.67225650244908</v>
+        <v>20.67225650241441</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.1994310835178</v>
+        <v>28.19943108353304</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>31.99203465600287</v>
+        <v>31.99203465603595</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.39528915103726</v>
+        <v>31.39528915103862</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>37.47428436132877</v>
+        <v>37.47428436135435</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>40.0510329704603</v>
+        <v>40.05103297046973</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>20.80102150316331</v>
+        <v>20.80102150313364</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.68452355552169</v>
+        <v>35.68452355551828</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.14796518483165</v>
+        <v>41.14796518490543</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>11.3418607443205</v>
+        <v>11.34186074433584</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>37.60904669357471</v>
+        <v>37.60904669355538</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>44.04810399899297</v>
+        <v>44.0481039989799</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>20.09923712298034</v>
+        <v>20.09923712305946</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.64121212818615</v>
+        <v>30.64121212816444</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.1256707813224</v>
+        <v>36.12567078137299</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>27.62692400536563</v>
+        <v>27.6269240054459</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>35.15439999536913</v>
+        <v>35.15439999544303</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>38.94702738253925</v>
+        <v>38.9470273826643</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>38.35047966371353</v>
+        <v>38.35047966379663</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>44.42958758780325</v>
+        <v>44.42958758786192</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>47.00634913607682</v>
+        <v>47.00634913607557</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>27.75605650927347</v>
+        <v>27.75605650934316</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>42.63981993688348</v>
+        <v>42.63981993694112</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>48.10336445620469</v>
+        <v>48.1033644562156</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>3.437250865710364</v>
+        <v>3.437250865745153</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.70251404772595</v>
+        <v>29.70251404772072</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.1406269264359</v>
+        <v>36.14062692641816</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>12.19537385168671</v>
+        <v>12.19537385176163</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>22.73526688682902</v>
+        <v>22.73526688687233</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.21925743538888</v>
+        <v>28.21925743539138</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>19.72146485658815</v>
+        <v>19.72146485660179</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>27.24743042545337</v>
+        <v>27.24743042554602</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>31.03966672454071</v>
+        <v>31.03966672455128</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.44257301302495</v>
+        <v>30.44257301307668</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>36.52080396640888</v>
+        <v>36.52080396645697</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>39.09721611141872</v>
+        <v>39.09721611143486</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>19.84885447408753</v>
+        <v>19.84885447412345</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>34.73077620887607</v>
+        <v>34.73077620885435</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>40.19341301950844</v>
+        <v>40.19341301956676</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>7.730848745889983</v>
+        <v>7.730848745869746</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.99865231940298</v>
+        <v>33.99865231942742</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>40.43765650526545</v>
+        <v>40.43765650526147</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>16.48850617410021</v>
+        <v>16.48850617410043</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.03043527478432</v>
+        <v>27.03043527478784</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>32.51486246884615</v>
+        <v>32.51486246881488</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>24.01606309025116</v>
+        <v>24.01606309035678</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>31.54344485095525</v>
+        <v>31.54344485094252</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>35.33605529953915</v>
+        <v>35.3360552995595</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>34.73921382623568</v>
+        <v>34.73921382619805</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>40.81834536201295</v>
+        <v>40.81834536201647</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>43.39509167881515</v>
+        <v>43.39509167883789</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>24.14464858731155</v>
+        <v>24.14464858728858</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.02851040406374</v>
+        <v>39.02851040410751</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>44.49194108874569</v>
+        <v>44.49194108878559</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>14.68526228450916</v>
+        <v>14.685262284458</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>40.95299681682359</v>
+        <v>40.95299681678516</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>47.39206576828614</v>
+        <v>47.39206576819679</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>23.44300616047535</v>
+        <v>23.44300616053173</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>33.98524992737298</v>
+        <v>33.98524992736206</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.46971824957375</v>
+        <v>39.46971824961103</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>30.97085078186164</v>
+        <v>30.97085078186243</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>38.49853396022768</v>
+        <v>38.49853396027827</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>42.29116821974314</v>
+        <v>42.29116821970403</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>41.69452453335423</v>
+        <v>41.69452453331421</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>47.77376878546538</v>
+        <v>47.7737687854307</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>50.35052804038837</v>
+        <v>50.35052804041372</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>31.09980378695824</v>
+        <v>31.09980378694733</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>45.98392698589662</v>
+        <v>45.98392698591117</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>51.447460557729</v>
+        <v>51.44746055768898</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>0.8910934411821181</v>
+        <v>0.8910934411710905</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>27.15674865820339</v>
+        <v>27.15674865826376</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>33.59495648695035</v>
+        <v>33.5949564870056</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>9.649201208949119</v>
+        <v>9.649201208957418</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.18930766477164</v>
+        <v>20.18930766480041</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.67333630121872</v>
+        <v>25.67333630124419</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>17.17539498507055</v>
+        <v>17.17539498507874</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>24.70149633830844</v>
+        <v>24.70149633831765</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.49377310277775</v>
+        <v>28.49377310279742</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>27.89671184943226</v>
+        <v>27.89671184949604</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>33.97504432624002</v>
+        <v>33.97504432621876</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.55148836415428</v>
+        <v>36.55148836414246</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>17.30285796879597</v>
+        <v>17.30285796879847</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>32.18499699941917</v>
+        <v>32.18499699942861</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>37.64772372869577</v>
+        <v>37.64772372869815</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>5.184705540109274</v>
+        <v>5.184705539933628</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.4529011901631</v>
+        <v>31.45290119018675</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>37.89200034590617</v>
+        <v>37.89200034591128</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>13.94234774625208</v>
+        <v>13.94234774625219</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>24.48449029763871</v>
+        <v>24.48449029764405</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.96895559077727</v>
+        <v>29.96895559076613</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>21.47000745585153</v>
+        <v>21.4700074558812</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.99752502214191</v>
+        <v>28.99752502211576</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>32.79017594647239</v>
+        <v>32.79017594647296</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>32.19336692870449</v>
+        <v>32.19336692876622</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>38.27260000270205</v>
+        <v>38.27260000268329</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>40.84937821735859</v>
+        <v>40.84937821730857</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>21.59866632984146</v>
+        <v>21.59866632986636</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.48274547562725</v>
+        <v>36.48274547562896</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>41.94626609381173</v>
+        <v>41.94626609382878</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>12.13937971861587</v>
+        <v>12.13937971857244</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>38.40750632941153</v>
+        <v>38.40750632938993</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>44.84667025567084</v>
+        <v>44.84667025574224</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>20.89710838234332</v>
+        <v>20.89710838233468</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.4395656014788</v>
+        <v>31.43956560145243</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.92407202819633</v>
+        <v>36.9240720281977</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>28.42505580319793</v>
+        <v>28.425055803196</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>35.95287479127357</v>
+        <v>35.95287479124697</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>39.74554952982071</v>
+        <v>39.74554952984128</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>39.1489382972516</v>
+        <v>39.14893829727298</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>45.22828408934247</v>
+        <v>45.22828408929563</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>47.80507524399802</v>
+        <v>47.80507524392958</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.55408218742575</v>
+        <v>28.55408218739812</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>43.43842272029319</v>
+        <v>43.43842272027204</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>48.90204623088634</v>
+        <v>48.90204623086781</v>
       </c>
     </row>
   </sheetData>
